--- a/public/ticket.xlsx
+++ b/public/ticket.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1241 +436,1827 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>每周逃离深圳去旅行🦋第7站：潮汕</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>大嘎好，我是挑战周末去 50 个城市旅行的深漂@MERA莓莓 	 ✨第7站：潮汕 深圳出发，周末 2 天 1 夜，高铁 1 个半小时到，两天人均 731元，建议先点赞收藏噢！ 	 具体攻略如下： 	 1️⃣深圳怎么去？ 周六 🚄D2294 深圳北站 —— 潮汕站 08:12——09:59 周日 🚄D9718 汕头站 —— 深圳北站 19:16——21:36 	 2️⃣住宿：在潮汕住哪里？ 汕头小公园附近，主打一个舒适性价比，维也*纳 	 3️⃣潮汕两天一夜怎么走？ 	 🔶Day1：潮州 牌坊街（吃逛） ➡️开元寺 ➡️广济楼 ➡️广济桥 ➡️韩文公祠➡️西马路（都在一块可步行）➡️18:00 顺风车去汕头（1 h），东市白粥用餐➡️回酒店 	 🔶Day2：汕头 自然醒➡️龙眼南路美食➡️ 汕头小公园 ➡️汕头旅社➡️十二中美食街 ➡️西堤公园 ➡️18：00潮人码头看日落🌄 	 4️⃣美食推荐： 	 潮州 甘草水果、咸水粿、糖葱薄饼、长平肠粉、同福砂锅粥、东市白粥、永逸豆浆、一杯潮茶 	 汕头 广场老牌豆花甜汤、阿猴牛肉火锅，杏花吴记（需预约） 十二中美食街（十二中草莓冰 ，跃进里腐乳鸡翅，伟顺反沙店（芋头番薯咸蛋黄），棉城鲎果 	 5️⃣❗️真实感受划重点 	 📍潮州 	 ✨牌坊街：全长 1948 米，有中式明清牌坊和错落的骑楼 	 ✨开元寺：位于牌坊街里，红墙与古寺，别有一番风味📷 	 ✨广济楼 + 广济桥：牌坊街的一头是广济楼，穿过去是广济桥，中国四大古桥之一，门票 20，人比较多，旁晚会拆桥 	 ✨韩文公祠：过了广济桥抵达，最早纪念韩愈的公祠，内部有一些碑文书法观赏，其他没啥，然后沿着石阶可以俯瞰潮州 	 ✨西马路：打车回牌坊街，可以去到西马路和义安路，童年小吃街 	 📍汕头 	 ✨12:00 龙眼南路 本地美食街，有很多好吃的，有点像长沙😂肠胃还不错的宝子可以尝试生腌 	 ✨14:30 汕头小公园 集美食与潮汕文化于一体，热门景点都在这片，游玩顺序： 	 📍汕头旅社 - 汕头邮局 - 开埠文化馆 - temp coffee - 百货大楼 - 中山纪念亭 - 老妈宫戏台 （时间充裕小伙伴阔以沿着这条路线，因为时间问题，下次有机会再来打卡完） 	 ✨16：30 十二中美食街 位于学校门口的美食聚集地！ 	 ✨17：30 西堤公园-潮人码头 看日落🌄 	 #暑期旅游#深圳周末去哪儿#深圳周边游#夏日出游#潮汕美食#潮汕旅游攻略#汕头#潮州#周末去哪玩#汕头小公园@生活薯@薯队长@走走薯</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g2sg314s0942mguc045j73a6a9si9i788cg8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>同程9元和39.9元火车盲盒</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>开到了泉州往返潮汕的车票！！！实付9+39.9+7+7=62.9元，两次改签手续费均是7元。 同程官方攻略，你值得拥有！ #汕头#我的盲盒分享#旅游攻略#坐上火车去旅游#同程旅行#同程火车票盲盒</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g00831a2013inncdg4a35r6h0ihacjhe7538!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>潮州2天1夜 人均700💰</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>潮州游记，感谢本地妹子带着吃喝玩乐‼️ 🚄深圳北—潮汕站11.00 🚄高铁—酒店🏠（打车50分钟） Day1：西马路➡️牌坊街➡️广济楼➡️广济桥➡️韩文公祠➡️泰佛殿➡️龙兴牛坊➡️广济桥灯光秀 	 Day2:双生肠粉➡️开元寺➡️西湖公园➡️老曹芝麻茶 	 📍西马路：小吃比较多；吃饱喝足去逛街才是旅游的意义！西马路可以通往牌坊街、广济楼、广济桥 	 📍牌坊街➖广济楼➖广济桥 广济桥（gzh预约门票20💰，走完这座桥就可以去到对面的韩文公祠），晚上有风光秀（免费，周末、节假日20.00、21.30各一场，每场10分钟） 	 📍韩文公祠08：30—17:00（gzh预约，免费） 纪念唐宋作家之一韩愈的祠庙，建筑风格典雅清幽 	 📍泰佛殿08：30—17.00（免费） 极富泰国特色，在潮州也能感受到异国风情，门口可以租衣服拍照📷记得货比三家，要注意防蚊！带好驱蚊药水，巨多小蚊子 	 📍开元寺08:00—17:00（免费） 粤东第一古刹，香火很旺，很值得拜一拜的地方，可打卡“缘来开元” 	 📍西湖公园 潮州八景之一，可租船划船🚣‍♀️最后去边上一家“老曹芝麻茶” 	 🍲美食打卡 ✅顺伯反沙屋：点的全家福一份26💰（红薯➕芋头➕蛋黄➕油柑）⭐️⭐️⭐️⭐️⭐️ ✅油柑汁：试了两家感觉差别不是很大，口感甘甘的⭐️⭐️⭐️ ✅十八曲鱼饺：点的全家福鱼饺汤一份30💰（鱼饺➕鱼册➕鱼丸➕鱼面……）分量挺足，一人点了一份吃不完⭐️⭐️⭐️⭐️⭐️ ✅春卷：3💰，里面的馅有绿豆、香菇、虾米⭐️⭐️⭐️⭐️ ✅腐乳鸡翅—潮涂记：外脆里嫩，腐乳很入味，每号限购5只，11.00—12:30 15.00—18:30⭐️⭐️⭐️⭐️ ✅潮州炒冰：建议堂食，炒冰融化快，现点现炒，里面好多料⭐️⭐️⭐️⭐️ ✅利和治茶：可爱的mini小茶壶会冒气，招牌鸭屎香，好喝又好看⭐️⭐️⭐️⭐️ ✅老曹芝麻茶：推荐芝麻茶、杏仁茶、炸豆腐，香味浓郁，口感香醇⭐️⭐️⭐️⭐️⭐️ ✅双生肠粉：人均23💰上面有一层花生酱，里面满满的牛肉香菇⭐️⭐️⭐️⭐️ ✅龙兴牛坊：肉多挺新鲜⭐️⭐️⭐️⭐️ #潮州旅游攻略#潮州美食#潮州打卡拍照#潮州广济桥#潮州泰佛殿#旅游攻略#潮州开元寺#潮州牌坊街#周边游</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g2sg314v1956cguc04altp56ahlebbifckro!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>如题，明天出发来潮汕啦</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>高铁浙江出发~潮汕站~转汕头站~南澳岛 	 路线大概是南澳岛~汕头~潮州，第一天直奔南澳岛， 	 因为看天气就27号最好，是大太阳后面有多云的风险。 求推荐南澳住宿，到底是后宅还是青澳，预计26号晚上5点后到，想第二天小毛驴环岛 🌸另外，汕头和潮州好吃好玩的有的也请推荐下，基本没做攻略😂😂😂走一步看一步，住宿也啥都没定#潮汕#潮汕美食#潮州#潮州旅行#汕头#汕头美食#汕头旅行#南澳岛#南澳岛住宿</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g2sg31akfdgt47gdg5ovg754k3msgkphfu8o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>同程28开到177元盲盒</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>正好上次去潮汕没打卡南澳岛，这次可以去啦嘻嘻，穿上一双拖鞋就出发啦😁#一个人的旅行#说走就走可以吗#坐上火车去旅游#周末去哪#南澳岛#特种兵旅游</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g0083180a56k9ju0g49g2hlso1jhti8bjbco!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>潮州旅游回来‼️2日游超详细攻略</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>#每天写一篇旅游攻略#潮汕的烟火气#潮汕#旅游攻略#游玩攻略#我的小众旅行攻略#城市的一百种玩法#城市文化和旅游#本地人做的攻略#潮州</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g00831ahpghlf7g2g5pjd7411onm7ggonf6o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>04男大暑假两日游📍潮州｜真实旅游分享</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>大学生特种兵两天一夜✈️打卡潮汕潮州 下面是本人整理的【旅游攻略+真实旅游分享】‼️ 欢迎大家漫步在千年古城潮州的路上🚶 感受古城浪漫和历史😋欣赏民间艺术的魅力 - ✅游玩路线 💃Day1: 开元寺→牌坊街→颐园→广济楼→韩文公祠→泰佛殿→青龙古庙→广济桥 💃Day2: 潮州西湖→北阁佛灯→许驸马府→海阳县儒学宫→镇海楼→陈伟南文化馆→古大士庵→己略黄公祠→竹木门城楼 - 🍜吃什么：（本人建议！） 🉑️小吃：腐乳鸡翅、煎蚝烙🦪、甘草水果🥭、鸭母捻、春卷春饼、牛肉丸🍡、鱼饺鱼丸、糖葱薄饼 🉑️粿（用米粉、面粉做的食物）： 麦粿、菜头粿、芋头粿、咸水粿、红桃粿、鼠壳粿 🉑️主食： 牛肉火锅、潮汕肠粉、粿条粿汁、卤鹅🦢、灌粿条、生腌 -ㅤ 🏨住哪里： 住在📍潮州古城内的一家民宿 离牌坊街不远 吃喝玩乐方便！很安静🤫 - 🈴️本人总花销合集—💰285.2r （两人AA平摊哦！） 1⃣️吃喝：💰171r 2⃣️交通：💰28.7r 3⃣️住宿：💰46.5r 4⃣️游玩：共💰39r（学生半价） ①颐园💰4r ②广济桥💰10r ③北阁佛灯💰5r ④许驸马府💰10r ⑤己略黄公祠💰5r ⑥海阳县儒学宫💰5r - 📚去潮州需要知道的： ❶交通攻略💯 🚄高铁火车选择【潮汕站】坐公交K2/高铁旅游专线 花费💰7-10r（发车时间6:50-22:00） ✈️飞机选择【揭阳潮汕机场】坐潮州线公交 花费💰20r（发车时间9:50-20：30） ‼️打车60r起步并且难打🚗 ❷潮州古城攻略💯 古城内不能开车！很拥挤难打车！建议租电动🛵 正常💰50+/天，节假日💰100+（可以砍价！） ❸广济桥攻略💯 门票💰20r，学生半价；⏰17:00后不能过桥 🎆灯光秀：（免费看）（10分钟左右） 周一至周四20:00一场 周末及节假日20:00和21:30各一场 ❹潮州特色美食在哪里👇 古城内：西马路、牌坊街、义安路、昌黎路、开元路 古城外：南较路、布梳街、西湖 ⚠️潮州景点距离都很近～可以慢慢玩 #潮州#潮汕#潮州旅游#潮州旅游攻略#潮州旅行#潮汕美食#夏日进行时#潮州两天一夜#潮州旅行攻略#潮州美食#潮州古城#潮州牌坊街#潮州攻略#暑假去哪玩</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g008314kl688u6i1g5o5ectng8pk7fhbd85g!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>深圳出发|500元路费穷游11座城市</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>环海线路： 深圳➡️汕尾➡️潮州➡️漳州➡️泉州➡️福州➡️南平➡️南昌➡️长沙➡️郴州➡️广州➡️深圳 	 车票详情： 深圳-汕尾  39分  50 汕尾-潮州  43分  51 潮州-漳州  51分  47 漳州-泉州  53分  41 泉州-福州  1时07分 54 福州-南平  1时34分 69.5 南平-南昌  4时54分 46.5 南昌-长沙  8时21分 95.5 长沙-郴州  3时44分 50.5 郴州-广州  4时07分 53.5 广州-深圳  1时38分 23.5 合计：582元打卡11座沿海城市，不走回头路 毕业旅行赶紧安排起来叭！ #五一去哪玩  #穷游攻略  #国内旅游日常  #旅游攻略  #火车旅行  #火车穷游  #大学生穷游  #环海  #小众旅游</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g0k0312k51ojkni005ph1smp0ubj30librf0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>男朋友做的潮州旅游攻略🔥理工男逻辑就是强</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>🌟5-6月准备去潮州旅游的宝子💕看过来‼建议收藏起来~ . 🏨潮州住宿建议 ⭐潮米民宿 😆窗外就是牌坊街，晚上望出去的美景真的绝绝子 😆房间里的小沙发特别舒服，躺着看电视追追剧太惬意啦！ 😆1.8m✖2m的大床，和姐妹们一起住着简直不要太快乐 😆超大的双人浴缸，一次容纳两个人完全没问题，还给搭配了一次性泡澡袋，洁癖星人也可以放心使用～ 😆全屋智能家居，智能门锁是密码出入的，特别方便，小冰箱、饮水机、洗衣机家电也是一应俱全～ #旅游攻略#游玩攻略#小众旅游#旅游推荐#旅游#城市探寻计划#穷游攻略#出行攻略#大学生旅游#我的小众旅行攻略#潮州#潮州旅行#潮州打卡#潮州古城#潮州牌坊街#潮州旅游#潮州民宿#潮州旅游攻略@薯队长@走走薯</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g008313curn76i0305p0mf4b526v15jflqio!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>潮汕旅游三日游超详细攻略</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>😁计划来潮汕的宝子一定要看，潮汕本地人整理的潮汕保姆级旅游攻略 	 游玩路线安排 	 汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #每天写一篇旅游攻略#旅游攻略#潮汕#周末去哪玩#人文景点分享#潮州旅行#汕头旅行#潮州#汕头#南澳岛</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g00831agg6tq5n21g5pjd7411onm7fajokdo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>03女大📍潮州/两天一夜精华波旅游攻略❗️</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>欢迎✈️大家来千年古城潮州，漫步在古城的街道，感受这里的历史与文化，品尝地道潮汕美食，领略独特的潮州魅力❗️ 🚞交通 🚄高铁到潮汕站，可搭乘公交K2或高铁旅游专线前往市区，费用约7-10💰 饶平站：位于潮州市饶平县，也是潮州的一个重要铁路站点 ✈️飞机到揭阳潮汕机场，有直达潮州的机场公交，费用20💰 📝我的路线 ✅Day1: 💃牌坊街➡️开元寺➡️颐园➡️广济楼➡️广济桥➡️韩文公柯➡️泰佛殿➡️青龙古庙 ➡️广济桥➡️西马路 ✅Day2: 💃潮州西湖公园➡️北佛灯➡️新桥路➡️鎮海楼➡️除南文化馆➡️古大士庵➡️己略黄公祠➡️竹木门城楼 🍜 吃什么 🉑小吃：腐乳鸡翅、潮州炒冰、利和治茶、煎蚝烙、甘草水果、鱼饺、糖葱薄饼、麦粿、芋头粿、咸水粿、有肠粉、粿条汤、牛肉丸、鱼丸、蚝烙、春卷、鸭母捻 🉑主食：潮汕牛肉火锅、潮州鱼生、卤鹅、粿汁、生腌海鲜、潮州牛肉粿条、凤凰炸豆腐 🍲美食推荐 ✅古城内的西马路、牌坊街、义安路、昌黎路是集中品尝潮汕小吃的好地方 🏠 住哪里： 📍潮州古城离牌坊街、广济桥等景点很近，吃喝玩乐非常方便❗️ 📖去潮州需要知道的小tips ✅古城出行：古城内道路较窄，建议租电动自行车出行，租金大约50元/天，节假日价格可能上涨。 ✅广济桥灯光秀：推荐晚上去观赏。非法定节假日，周一至周四每天一场，（20:00）法定节假日及周未休息日每天两场（20:00、21:30）每场只有10分钟，人很多，找好视角好的地方📷嘎嘎出片 ✅带上重要的证件，学生门票半价❗️ ⭐️我的花销🈴集416💰 🚞深圳➡️潮州123.5💰住52r（雅斯国际，两个人aa之后）行30 吃180💰 🎫门票30💰 	 #潮州#潮汕#潮州旅游#潮汕美食#潮州美食#潮州两天一夜#潮州旅行攻略#潮州古城#潮州牌坊街#潮州攻略#潮州旅游攻略</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g008317p69kn1ka005obp6pggk2arqki2110!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>深圳出发潮州，两天一夜，人均600够吗？</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>🕹地点：深圳—潮州 先从深圳北出发坐高铁到潮汕站，高✨铁票🚅：💰135（往返💰270） ✨天数：两天一夜 ✨人数：两人 🕹Day1：潮汕—潮州—牌坊—西马路—开元寺—广济楼—广济桥（都在一块地方） ✨潮汕站打滴（💰45）或者坐k1（💰8）专线公交直达牌坊街，我们当天入住的是一家比较特色的名宿，环境很不错。 入住完就去逛牌坊街，不过不要在牌坊街买东西吃，又贵又不好吃，可以去西马路吃，就在牌坊街隔壁，徒步过去就行，逛完牌坊街直接就可以看到开元寺，可以进去逛逛，然后去广济楼拍拍照，打打卡，赶在四点之前去广济桥，因为五点半就停止售票，要拆船了🛶 ✨广济桥门票：💰20 牌坊街和广济桥白天晚上风景不一样，牌坊街晚上亮灯很好看，拍照很出片，广济桥晚上八点和九点有灯光秀，要早点去占位置，不然什么都看不到，太多人了，我们就去晚了，什么都没看到 🕹Day2：潮州西湖—泰佛殿—韩文公祠—返程 ✨我们是早上徒步🚶‍♀️去西湖的，湖里可以划船🛶脚踩的，可以体验一下，挺费体力的😢 ✨双人：💰50/小时 ✨3-4人：💰70/小时 🍣中午在附近吃的鱼生🤤味道还行，不过吃不惯腥和生食的小伙伴们还是不要尝试了 下午骑共享电动🚴‍♀️去的泰佛寺🕍 寺庙很小，只适合拍照，周末人很多，拍照的话要穿上傣族的衣服比较出片😎服装在寺庙门口有很多💰20一套💰30一套的都有，看个人选择 拍完照后可以去韩文公祠逛逛，羞羞的铁拳有个场景就是在这取的景 ✨逛完时间差不多啦，🚅打滴去潮汕站回大深圳打工啦 🍱潮汕美食：牛肉火锅、腐乳鸡翅（巨好吃）、车轮饼、砂锅粥、鱼生、生腌、牛杂粿牛肉粿、肠粉、甘草水果、春饼.... 😎期待下次出游✌ #不想上班#深圳出发#潮州#旅游攻略#小红书创作者中心</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g00830uv7mgdb582g5p1ep404cb66s06obgg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>深圳-潮州 两天一夜</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>🌟消费 两人旅游，人均550r 	 🌟出行 ​高铁🚄-顺风车-小电驴 ​深圳北-🚄-潮汕站（120r 2h）-顺风车-官塘潘记牛肉火锅-打车-酒店🏨-小电驴反复绕潮州古城-酒店-打车（40min左右，40r左右）-潮汕站-🚄-深圳北​（哈啰顺风车打车便宜些！） ​ ​🌟饮食 	 官塘潘记牛肉火锅（100r）||​甘草水果（七丛松28r）||​永记小吃​（蛋黄卷 马蹄卷 芋头卷 春卷26r）||​反沙芋头和红薯（15r）||​惠来绿豆饼（13r）||潮州三宝（60r）||老四麦粿（5r）||​花阿姨电影水果汁（16r）||昌黎车轮饼（4-6r/个）||​六六海石花（红豆沙和海石花）||老戏园糖葱薄饼||腐乳鸡翅（7r）||谢焕亮杏仁茶（6r）||谢记肠粉（7r）||​陈杨记点心坊（不到2r/个）||皮蛋弟砂锅||咸水粿（5r） 	 📢两个人吃的是真多啊（价格都是左右浮动，有的价格我也忘了），食物味道评价具体见p6 ​ ​🌟景点 ​1⃣️泰佛殿:免费，在江对面，远一些，可租衣服拍照（对面可停小电驴2r），不拍照的话，也没啥逛的，比较小。 ​2⃣️广济桥:20r，好看是好看，觉得票价挺贵的，半小时都逛不到的那种。 ​3⃣️青龙古寺:小寺庙，过节应该会比较热闹，那会去挺冷清的。 ​4⃣️开元寺:小寺庙，挺好拍的，人也算比较多，挺大的，还算好逛。 ​5⃣️广济楼:晚上去，人比较多，我们没排上灯光秀，不过拍照就挺好看的。 ​6⃣️牌坊街，西马路 ​骑着小电驴，那几条路来来回回逛，没啥特别的，就是感受一下潮汕的街区文化。 ​7⃣️潮州西湖 ​买点吃的过去逛，还是很惬意的，就是天气热的话就难受了，有老人在那打太极。 ​8⃣️镇海楼 ​好像没法进去，就打了个卡，当时对面有个展览，就一起逛了。 	 📢各个点的大概位置在最后一张图，没在图上的都是离的比较远的。 ​ ​🌟住宿-府之城客栈 120r左右，​环境很好，老板超好，洗浴都是一次性用品，很干净，可租小电驴（50/天，我们从前一天下午15点到第二天下午17点，老板也给我们算的50！！！）离古城2公里左右，小电驴很方便，走路就算了。 ​ ​🌟总体感受 很有生活气息的小县城，觉得生活紧张，确实可以去逛一逛，放松放松，周内人其实不多，自驾方便很多，吃的就很难评，不适合我这种爱吃辣的人，太甜太腻，每天都需要柠檬水解腻。 ​#这个模板有点东西#在过一种很龙的年#旅行碎片#潮州#攻略#潮州两天一夜#深圳周边游#旅游#plog</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g2sg314sc6mgpgs3g5n9r21i4ae7b2n0iio0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>潮汕Tips | 周末两天一夜玩转潮州&amp;汕头✨</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>潮汕并不是一个城市 潮州、汕头、揭阳、南澳岛都属于潮汕 每座城市都有独特的魅力 这次从深圳坐高铁出发 分享一个潮州&amp;汕头的Citywalk逛吃地图 〰️〰️ 出行指南 🚄高铁 ✅往：深圳北➡️汕头站（8:17-10:36）💰133 ✅返：潮汕站➡️深圳北（19:34-21:20）💰122 碎碎念：潮汕站在潮州，汕头站在汕头，潮州、汕头之间可以打顺风车，1-1.5h可达，价格40-50元 · 🚌交通 潮州、汕头没有地铁，车站去市区要打车或者坐公交，市区内景点比较集中，多以步行为主，租个电动车出行，也很方便 ✅潮州：“潮汕站➡️牌坊街”公交约1h ✅汕头：“汕头站➡️小公园”公交约1h 碎碎念：潮州古城限制共享电动车，一进入就会断电，建议步行或者租电动车，汕头骑共享电动车很方便，不建议自驾，会堵车 - 住宿指南 ✅潮州：住“牌坊街”附近 ✅汕头：住“小公园”附近 碎碎念：为了在汕头看一场橘子日落，还能在潮州看一场广济桥的灯光秀，先去汕头，晚上坐顺风车去潮州，然后在潮州住下 - 路线指南 🗓Day1·汕头小公园Citywalk 🗺️路线：中山纪念亭➡️老妈宫戏台➡️汕头邮局大楼➡️TEMP'COFFEE➡️开埠文化陈列馆➡️汕头旅社➡️西堤公园➡️潮人码头➡️顺风车（1.5h）去潮州广济楼 ✅汕头小公园 集美食与潮汕文化于一体，打卡“汕头”大字、体验潮剧文化，citywalk的好去处 ✅西堤公园➡️潮人码头 民国建筑馥园，打卡橘子日落🌄 · 🗓Day2·潮州古城Citywalk 🗺️路线：西马路小吃街➡️开元寺➡️牌坊街➡️广济楼➡️广济桥➡️韩文公祠➡️泰佛殿➡️潮州西湖 ✅牌坊街 特色的文化古街，中式明清牌坊和错落的骑楼，有很多小吃 ✅开元寺 红墙配古寺的“故宫”即视感 ✅广济楼+广济桥（🎫20r） 穿过广济楼，便是广济桥，傍晚会拆桥，即“过河拆桥” ✅韩文公祠 纪念韩愈的公祠，了解韩愈的历史，有碑文书法，沿着石阶可以俯瞰潮州 ✅泰佛殿 潮州小泰国 - 小吃推荐 ✅汕头（具体见图2️⃣） 主要集中在商平路、跃进路、十二中 ✅潮州（具体见图3️⃣） 主要集中在开元路、西马路、太平路 〰️〰️ #潮汕#潮汕美食#潮汕旅游攻略#潮州攻略#潮州美食#汕头攻略#汕头美食#深圳周边游#广东旅游#深圳周末去哪儿</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g2sg318kcnqqtjq904a4ld2unf8jru7jqojo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>潮汕旅游路线安排！汕头+南澳+潮州</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>潮汕旅游懒人版攻略，计划来潮汕的宝子一定要看，😎汕头+南澳岛+潮州的超详细旅游攻略 	 ✅汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 ✅南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 ✅潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #大声安利本地美食#每天写一篇旅游攻略#旅游攻略#旅行吃喝玩乐#我的小众旅行攻略#游玩攻略#潮州#汕头#南澳岛#潮汕旅游</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g008317q7g9l4ka1g5pjd7411onm72uqmuc0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>深圳打工人周末旅行 | 第1️⃣站 省内潮州</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>🙌作为每月都来一次的靓女👩🏻‍🦰，推荐一些本地人才知道的好吃好喝地～ . ⏳行程安排： 周五下班：🚄高铁深圳北-潮汕站-8块钱大巴🚌到南桥市场（牌坊街入口） 周六周日：🚶‍♀️‍➡️city walk+吃吃喝喝 周日晚上：🚄高铁潮汕站-深圳北 . 🍽️必吃： ❇️肠粉：芝麻酱代表-猷巷潮味肠粉店&amp;酱油肠粉代表-汕头肠粉店 ❇️粿汁： 开元老七粿汁 ❇️牛肉粿条：一定要认准商标哦🥢镇记老尾牛杂，配上潮汕特有的南姜末，美味。 ❇️好记牛肉，各大点评网上评论不超过10条的冷门店铺，但是环境就很一般啦，人均80吃到撑，蔬菜都有送~ ❇️金龙大酒店：手推车的老式早茶店，平价又好吃，非常推荐核桃包🥹 ❇️新权记：比较实惠的潮州菜餐厅，喝喝汤吃吃蚝烙等。 ❇️余时冰室绵绵冰：一天会吃两碗🍧 ❇️牌坊街中间司徒世家的粽球：找到牌坊街边司徒世家的牌坊，会有阿婆在那里卖粽球～ . 🏡住宿：牌坊街里 ✅我家客栈：古香古色的客栈，牌坊街正中心，开元寺正对面，还有整个牌坊街唯一的停车场，自驾游什么的都特别方便 . 👣必玩： -牌坊街：免费的景点，骑楼文化，白天可以走一走旁边的小巷，说不定会遇到隐藏的惊喜小摊 -广济桥：20元一位，中国第一座开放式桥梁，四大古桥之一 -滨江长廊：一条江边公路，夜间风景美不胜收，晚上有灯光秀 -西湖公园：钱来表情包同款打卡 -开元寺：免费，可求一个20元开光首饰盲盒 #打工人旅游#国内旅游日常</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g2sg316r0j25u44a05ooe3r5kgco228n2s98!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>📍汕头二天一夜攻略 | 潮汕的美食之旅</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>✨ Day 1 🌅 早上9:30深圳自驾出发，12:45到达汕头，稍微有一丢丢堵车，到达之后就能感受到这座城市的氛围是松弛又热情！ 🍽 午餐推荐：天汕牛肉火锅 - 🌟 新鲜的牛肉，清爽的汤底，Q弹的牛丸、爽脆的胸口油，再搭配上自己喜欢的酱料，简直是人间美味，就连湿炒牛河都好吃到要两份的节奏，吃完后心情大好~ 🏖 下午：入住酒店、出发小公园、汕头旅社、镇邦美食街逛吃 - 💕 小公园亮灯以后拍照很出片，氛围感拉满，汕头旅社人头攒动，拍照比较困难，这三个地方都是属于比较成熟的商业街，纪念品价格相对贵一点，打卡一下就可以了，不用留太多时间，本想来还去广场坐轮渡的，费用好像是1元，我们太饿直接下一站~ 🍢 晚上：龙眼南路小吃 - 🍜 大家一定要来吃的一条街，各种美食一应俱全；1、小吴肠粉（排队但很快，值得一试）2、屋里甜汤（手工现搓先做，有点慢）3、老山合（肉松真的好吃，小朋友喜欢）4、揭阳老牌腐乳鸡翅（现炸出来的口感是难以形容的惊艳，外皮酥脆，内里肉质滑嫩爆汁，回深之后一直念念忘的就是这口腐乳鸡翅），整条街人不少，但大家脸上都带着满足的笑容，绝对让你停不下来！（不好停车，节假日会被抄牌） 🍽 晚餐推荐：围炉夜话卤水火锅 -🍲我们从龙眼南路出来就21：00了，围炉夜话还在排队，我们等了大概10分钟，第一次吃卤水火锅，开始吃比较淡，后面越煮越入味，海鲜、牛肉、内脏都很新鲜，可以试一下，但排队一小时以上个人就觉得没必要了。 ✨ Day 2 🌅 上午：龙眼路南路 - 🏛睡到自然醒，继续龙岩南路吃吃吃；1、老牌福记加浓豆浆，推荐他们家的小油条2、小吴肠粉（皮薄馅料多，随便点不踩雷）3、惠来绿豆饼（甜的、咸的都有，还推荐老香黄可以泡水喝） ☕ 中午：妈屿岛 - 🍃大人们海边放空，孩子们玩水玩沙，感受海风拂面，如果天气好的话拍照应该非常出片好看！我们去的时候是阴天，也很好一点都不晒，吹着海风散散步很舒服，毕竟面朝大海总是让人心情愉悦的~ 🏛 下午： - 🍃 从岛上出来之后随便找了一家汤粉店，汤很鲜味很正，隔壁鲜果切买的水果无敌好吃，但我都不记得名字了，感觉比汕头旅社那边好吃，抱着鲜果切我们踏上了回深的路，结束美好的旅程。💕 #汕头旅行#汕头美食#深圳周末去哪儿#美食分享#汕头二日游#汕头旅社#汕头旅游攻略@薯队长@走走薯@生活薯</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g008319ij3q5on21g49hi8kgkiotr66epuqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>深胶己人抢不到高铁票看这里，巴士直达潮汕</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>就是这个巴士@小红巴士 ，抢不到高铁票问题也不大😎，小红巴士🚍推出的国庆专线，去汕头178，去潮州、揭阳188，不用挤地铁🚇去换乘🔄，高速直达~还挺方便的✌️，想回家🏠或者去潮汕玩的友友们可以码住~ 	 深圳↔汕头178 深圳↔潮州、揭阳188 🚌深圳站点： 深大地铁站A4出口右手边上楼梯 大剧院地铁站E出口 	 🚌汕头下车站点: 潮阳和平酒店(鱼场北路店) 汕头汽车总站公交站 	 🚌潮州下车站点: 潮州人民广场 	 🚌揭阳下车站点： 机场东收费站 	 #巴士#小红巴士#潮汕#胶己人#潮汕人#深圳#潮汕人在深圳#汕头#潮州#揭阳</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g2sg3184jfb1344a05nmu2cq0bkai755m7m0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>深圳出发旅游路线 | 5百多路费玩9️⃣座城</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>深圳—汕尾——潮州——厦门——泉州——福州——南昌——赣州——深圳 深圳-汕尾       动车约1时      二等69 汕尾-潮汕       动车约1时      二等66 潮汕-厦门       动车约1.5时    二等95 厦门-泉州       动车约1时      二等35.5 泉州-福州       动车约1.5时   二等66 福州-南昌       火车约4.5时   硬座75（z392） 南昌-赣州       火车约4时      硬座62.5（t397） 赣州-惠州       火车约4.5时   硬座54.5 惠州-深圳       火车约1.5时    硬座16.5 总共大交通💰540，一路打卡9️⃣座城🐮 	 ⭐单程时间不超5个小时。 ⭐🚄为主，🚞为辅助，不会太累。 ⭐环城旅游，不走回头路。 ⭐游玩时间15天左右🉑走完这9️⃣座城。 ⭐敲多美食，瓦罐汤、拌粉、烫皮、牛肉火锅、牛肉粿条、菜粿、无米粿、肠粉、小米、菜茶、牛肉丸、鱼丸、海鲜、水果捞、蚝仔烙、麻糍等等。 #穷游路线#只是为了几个瞬间#暑假旅游#寒假旅游#五一去哪玩#假期去哪玩#国内游旅行攻略#深圳旅游#汕尾旅游#潮州旅游#厦门旅游#泉州旅游#福州旅游#南昌旅游#赣州旅游#惠州旅游</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g008311egsi8c6q0g5p3b053qaj2ou9vs5lg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>深胶己人抢不到高铁票看这里，巴士直达潮汕</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>就是这个巴士@小红巴士 ，抢不到高铁票问题也不大😎，小红巴士🚍推出的国庆专线，去汕头178，去潮州、揭阳188，不用挤地铁🚇去换乘🔄，高速直达~还挺方便的✌️，想回家🏠或者去潮汕玩的友友们可以码住~ 	 深圳↔汕头178 深圳↔潮州、揭阳188 🚌深圳站点： 深大地铁站A4出口右手边上楼梯 大剧院地铁站E出口 	 🚌汕头下车站点: 潮阳和平酒店(鱼场北路店) 汕头汽车总站公交站 	 🚌潮州下车站点: 潮州人民广场 	 🚌揭阳下车站点： 机场东收费站 	 #巴士#小红巴士#潮汕#胶己人#潮汕人#深圳#潮汕人在深圳#汕头#潮州#揭阳</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g2sg3184jfb1344a05nmu2cq0bkai755m7m0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>本地人带你玩转潮汕三市💥</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>📍行程安排：潮州➡️汕头➡️揭阳 ✳️潮州游玩路线：潮汕站—牌坊街—开元寺—广济桥和广济楼—韩文公祠—潮州西湖—西马路美食街 ✳️汕头游玩路线： 1️⃣汕头站—汕头小公园—老妈宫戏台—汕头邮政总局—汕头旅社—西堤公园—广场轮渡—潮汕历史文化博览中心 2️⃣南澳岛：南澳大桥—长山尾灯塔—田仔地质公园—钱澳灯塔—前江湾沙滩🏖️—四海取景地—三囱崖灯塔—青澳湾沙滩—走马埔—森林公园—出岛 ✳️揭阳游玩路线：揭阳站—揭阳楼—进贤门—揭阳学宫展览馆—城隍庙—中山路—西湖公园（揭西和普宁的美食很多，吃猪脚和看海去惠来） -- 📍如果你想来潮汕，我推荐过年来，来这边体验潮汕的传统文化❗️每个村每个镇都有庆祝新春的习俗。从初一到十五，营老爷、英歌舞、舞狮、舞龙、铜鼓巡逻、游灯会、猜灯谜等活动。 -- 📍潮汕美食推荐 中国美食看广东，广东美食看潮汕。这边的美食真的太多太多了，肠粉、牛肉火锅、湿炒牛肉粿、潮汕生腌、潮汕腌制水果、无米粿、红桃粿等各种粿、潮汕的汤粉面、蚝烙、捞面…潮汕好吃的东西太多啦，在潮汕天天都会吃撑的。 -- ✅安排的路线都是偏大家来游玩的，而且交通也还方便点的，其他的景点和美食欢迎👏大家补充。 潮汕会是你2024年的想去的地方吗❓ #汕头旅居  #旅居汕头  #汕头吃喝玩乐  #潮汕三市  #汕头小公园  #潮州牌坊街  #揭阳进贤门  #汕头旅游  #汕头旅行攻略  #汕头五一  #五一潮汕游  #潮州广济桥  #潮汕美食  #潮汕牛肉火锅  #汕头南澳岛  #汕头站  #汕头旅社  #广场轮渡  #五一去哪玩  #五一  #五一去哪玩  #周末去哪玩  #周末快乐时光  #周末潮汕游</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1040g34o3125sfoavke005pcddunoidimskf4fog!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>深圳到潮汕周末游玩路线</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>📸大概游玩路线（两天一夜） 泰佛殿👉牌坊街👉开元寺👉广济楼👉广济桥👉南澳岛👉汕头龙眼南路 	 第一天：深圳坪山站-潮汕站 🚅高铁119元：高铁一个半小时，上午早一点过去就行（也可深圳北过去：票价135元）。 🚖打滴滴到酒店70元：金额是个大概的数，我们是从高铁站打车到🍊桔子酒店（离广济楼、泰佛殿很近）。 🏨酒店350元：酒店就看自己选了，价格不定，最好选择华住会上面的连锁酒店，整体会好一些。 🏰泰佛殿0元：在酒店放完行李，直奔泰佛殿，无需门票🎫，门口非常多吆喝租衣服拍照的商家，大家自行斟酌，我怕他们不洗，就没拍；进去以后自己拍照游玩，这里面建筑确实很好看，不过园区不大，拍一拍逛一逛，顶天一个小时就差不多啦～ 🏚牌坊街0元：无需门票🎫，牌坊街与泰佛殿就一座桥的距离，逛玩泰佛殿可以打车过去，也可以坐公交车。到了牌坊街逛一逛吃一吃，油柑汁、腐乳鸡翅比较推荐，不过里面吃的容易踩雷，按本地人说就是“除了景区里面的都好吃”，所以大家自己看着买吧。 🏰开元寺0元：在牌坊街一直往前走就会看到开元寺，里面非常好看，很有氛围，屋顶嵌瓷一定要看看，很热闹～ 🏚广济楼—广济桥20元：广济桥20门票，从开元寺出来往左一直走，会看到城墙，那边出去就是广济桥了，自己去拍拍照打卡，上桥门票20即可。晚上要看灯光秀的可以逛到8点，中间休息休息，8点有灯光出来挺好看的，但是人特别多。 	 第二天：潮汕站——汕头站（越早越好） 🚅到汕头站24元：一等座24，二等座12，自己选择，反正也就十几二十分钟～ 🏨酒店350元：价格不等，可以住万象城附近，就在龙眼南路前面，我们住在高铁站旁边的星程酒店，因为坐公交就能直接上南澳岛。 🌊南澳岛0元：建议早上早一点坐公交上岛，人少很好玩！公交是161A，12元就可以，如果是开车的话要96元过桥费。上岛之后在游客中心站下车，下车对面美宜佳旁边就是租电驴🛵的地方，我们租了一上午是50，。跟着路线骑车环岛游就行，一路上都很美，记得做好防晒！！ 🌈龙眼南路0元：来了龙眼南路就是逛吃逛吃了，很多网红美食店都排长队，吃哪家就自己选择吧，我们没去排队等，随便找的，可以尝尝狮头鹅、牛腩饭、反沙、甘草水果、腐乳鸡翅、牛肉火锅、沙嗲面、海鲜等等 🚅汕头回深圳132元：晚上高铁2小时就到。 	 #深圳潮汕#潮汕#南澳岛#浪漫的分享者#旅游攻略#旅行吃喝玩乐</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1040g008317u1ckssju705n1bf471m576a3rnvqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>深圳打工人幸福周末|汕头一日游💃</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>❤️提前一周多买票【8:14 - 10:36】到汕头站 ❤️11:15 打车到《小吴肠粉》！打车（18min）公交梅园站下车 （40mins+ 我们赶时间所以打车啦） 周末去会很多人排队，排队的时候点单旁边的《一杯潮茶》，可以在门口拍照📸。推荐海盐黄皮冰茶，然后轻乳茶系列(人间烟火)会有个小壶🏺拍照📸，几个人买一份就可以了。肠粉😋好吃，推荐海鲜猪肉！小份9块💰分量也很足。 ❤️12:00 步行到旁边的《普宁反沙番薯芋头》，甜甜的杂粮炸物，普宁特产，吃两口路上慢慢吃。 ❤️12:30 打车（11min）到达小公园。旁边也有公交（30mins+） ❤️买了明信片，可以参照打卡！25十张，一块钱买邮票就可以寄给远方的朋友 ❤️买了汕头文创雪糕15💰 ❤️小公园依次打卡存心善堂，百货大楼，老妈宫大戏台/关公庙，汕头邮政总局大楼，汕头旅社 哐哐拍照📸哐哐逛！ ❤️13:45 步行到达汕头旅社，打卡！旁边有家潮汕生腌可以尝尝，钢铁肠胃可以，小伙伴哒咩了，我也没吃上。 ❤️14:00 打车去吃《杏花吴记》潮汕牛肉火锅 (10min)可美团/大众点评线上排队(50个号预计排队一小时)！店很大周末一般不用排队但是坐满90% 哐哐吃肉🥰，两个人四盘肉140。 ❤️店旁边一点就是《酸袅袅甘草水果》，买了一盒32💰回去高铁上吃🤤（25一斤，部分水果50） 马路对面还有一家吴记甘草（懒得过马路 ❤️15:50 打车冲汕头站(20min+，看沿途红绿灯🚥情况) ❤️【16:32 - 18:41 】回深圳 我们是提前买票迟一点时间段的车票售罄了，但是走的时候看票其实六点多的车票还可以改。 如果时间充足的友友可以从汕头旅社步行去做渡轮，再逛一会！ 特种兵出行总结完毕，吃吃喝喝玩玩乐乐！#23fall港硕#一日游#深圳实习#汕头旅行</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1040g00831459i71tic4g4a6m6dq39ko32sej2g8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>📍潮汕｜泉州至潮汕 人均不到800！</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Day1⃣️ -上午 动车8：35-10：41泉州至潮汕站 首选K2公交到奎元路口站下车（5元以内/人）也可坐潮州古城专线（15元/人）图最后有时刻表 🚌专线和公交坐车的地方都在一起 上车点基本都是专线卖票的在拉人买票 ❗️专线基本不用等直接扫码上车 公交的话就需要等 最好到了就排队 不然排到后面上车没位置坐 只能一路站着 到第一个下车点差不多三四十分钟 打车至官塘兄弟牛肉火锅（莲云店） 店内可以打卡“潮州府城” 吃完打车回酒店休息 	 -下午 泰佛殿-韩文公祠（🆓美团提前预约）-广济桥（票价20）-广济楼-牌坊街（开元寺在里面） 广济桥工作日应该是4:30不能进入了 周末会延迟到5. 可以关注一下时间 ❗️8:00到8:15广济桥有灯光秀 七点半就可以过去咯 个人观感一般 没什么特别的 还没八点就里三层外三层的都是人 我看了两三分钟就走了 结束要走发现打不到车 晚上古城会有交通管制 车基本进不来 只能走路或者打摩托坐小白出去 建议在牌坊街逛吃逛吃完就来广济楼拍拍照就可以走了 没必要凑灯光秀的热闹 想看的话上网搜一下吧哈哈哈 😋牌坊街打卡美食（没打勾的没吃 油柑汁✔️老四麦粿 腐乳鸡翅✔️ 成川治茶✔️ 湖镇老尾牛杂✔️ 惠来绿豆饼✔️ 顺顺糯米铺 	 Day2⃣️ -上午 顺风车到杏花吴记牛肉火锅 提前一天约车！ 我们九点半到店 是第☝️桌！哈哈哈 不得不感叹服务是真好 门口有专门迎宾 还没下车就帮忙开门 撑伞遮太阳 还会帮忙开后备箱拿行李 对比第一天吃的官塘兄弟（中规中矩） 杏花吴记的牛肉更好吃 炒鸡嫩 果然名不虚传 🛵吃完坐共享到汕头小公园 按路线拍拍拍（图三 小公园不大 走走停停两个小时就能走完 	 -下午 ⛴️到广场渡轮 两元往返 单趟就十分钟左右 往返包含上下船时间差不多半个多小时 建议坐二楼景观比较好 还会有工作人员教你拍汕头轮渡独特机位噢 	 定位细姨甜汤 打车到龙眼南路 😋打卡美食 楼下鸡翅✔️ 细姨甜汤 普宁反沙番薯芋头✔️ 长平肠粉✔️ 邻家果园水果 家常牛肉 亚鸿甘草水果✔️ 亚强果汁冰✔️ #吃喝玩乐薯#我是旅游吃喝特种兵#旅行就要逛吃逛吃#潮汕#潮汕美食#潮州#汕头#旅行#小公园美食#汕头小公园</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1040g2sg31a64a4b0ngbg4a7np6dff7pu65hb2tg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>避坑潮州汕头路线选择</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>潮汕🌟|潮州+汕头，2天1晚周末游超全攻略！|||✅Day1:潮州（一桥一楼一街） 🌟|游玩路线： 韩文公祠→泰佛殿→潮州古城（牌坊街→广济桥→广济楼→颐园→开元寺→西马路→镇海楼→许驸马府→潮州西湖公园）→北堤夜市/潮食汇 🛤️|景点特色： 🔸韩文公祠：纪念唐宋八大家-韩愈建的公祠，依山傍水，古朴典雅 🔸泰佛殿：泰式风格建筑，门口可租衣服拍泰式照 🔸牌坊街：潮州古城的一条主街，有22座风格各异的牌坊，两边有众多特色美食，街口对面有南门市场，可以去买本地人吃的牛肉丸等特产 🔸广济桥：每晚8点有灯光秀很震撼，周五六日九点半会加1次，门票20 🔸颐园：潮州最美园林，拍新中式写真很出片，门票8 🔸开元寺：门口可以领3根贡香拜拜，可以求福袋手串，8点半左右开始，请完即止 🔸西马路：潮州地道小吃街，烟火气十足，很多必打卡美食：惠来绿豆饼、吴进平小食、甘草世家、糖葱薄饼 🔸镇海楼：大卡“潮州城府”，适合拍汉服写真，亮灯时间：18:00-23:00 🔸许驸马府：是一座宋代府第，现存最早的“府第式”民居，门票20 🔸西湖公园：众多亭宇，古香古色，可以划船散步，逛完可以去门口喝个芝麻茶 🔸北堤夜市（导航北关集市）：人多热闹，各种小吃摊，可以吹海边晚风 ✅Day2:汕头（百年商埠，海滨邹鲁，美食之乡） 🌟|游玩路线： 小公园→老妈宫戏台→汕头旅社→镇邦美食街→西堤公园→潮人码头→广场轮渡→礐石风景区→潮博馆 🛤️|景点特色： 🔸小公园：众多南洋骑楼建筑，是汕头老城的核心地标和文化标志，文艺感满满 🔸老妈宫戏台：中西合璧+潮汕独特建筑特色，一睹曾经的繁华，有很强的参观价值 🔸汕头旅社：门头“汕头旅社”四个大字，网红打卡点 🔸镇邦美食街：各种潮汕小吃 🔸西堤公园：是赏落日的绝佳之地，馥园建筑很民国风 🔸广场轮渡：傍晚去坐1元轮渡，海上追逐日落，游览汕头内海湾 🔸礐石风景区：山顶观景台飘然亭，可以俯览汕头全景 🔸潮博馆：背靠礐石风景区的笔架山，面向汕头内海湾，是潮汕历史文化博览园的核心建筑</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1040g008314mtjuoom8305pjmi16gud9vfa7f36g!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>挑战广州女生出发300💰公共交通游潮州</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>广州女生独自出发📍潮州 下面是本人整理的特种兵一天游潮州【旅游攻略+真实旅游分享】‼️ 那些想一个人出发潮州不知道吃什么，玩什么的看这一篇就够了。 先给大家看个费用清单： 🈴️本人总花销合集（图2）—💰371（交通费占大头） 1⃣️吃喝：💰97r 2⃣️交通：💰187r广州-潮汕🚄动车 💰14 潮汕站—潮汕市区 旅游专列（K2跟旅游专列都可以从高铁站到潮汕古城，但是K2人很多要排比较久的队而且人多的时候没得坐就是大家平时见到的公交车，建议可以坐旅游专列15元直达古城，起码坐得舒服也贵不了几个钱） 3⃣️住宿：💰73r 4⃣️游玩：共💰0r 	 🏝️游玩路线（图3）：高铁站K2→牌坊街→西马路→回酒店→潮州古城→西湖公园→镇海楼→开元寺→广济楼+广济桥 ✅牌坊街——必去 （图4） 晚上的牌坊街比早上好看，错峰出行人很少 ，类似于广州步行街 ✅西马路——可去可不去 牌坊街隔壁，吃得跟牌坊街差不多。 ✅西湖公园——可去可不去不大，没啥看头还不如广州公园 ✅镇海楼——可去可不去，就一个城楼，可上可不上。 ✅开元寺——必去 （图5） 千年古刹 拍照很好看，很有氛围感 ✅广济楼/广济桥——必去 潮州标志性建筑，傍晚在广济楼上面看夕阳很不错（图6）。当然不可错过5:30pm看“过河拆桥”跟8:00PM的灯光秀（图7） 	 🍜单人美食路线（图8）：源福记牛肉丸→老魏杏仁糊→镇前街腐乳鸡翅→付鼓鼓龙眼冰→老戏园糖葱博饼→牛肉粿条→开元路古法甜汤鸭母捻→街边随便买的油柑汁→第二天路边早餐肠粉 ✅源福记牛肉丸 （团购8💰好吃又便宜） ✅老魏杏仁糊 （团购6💰 潮州人别骂我，感觉还不如广州我家楼下的） ✅镇前街腐乳鸡翅 （按重量买8💰是好吃的，但不值得排2小时买） ✅老戏园糖葱博饼 （吃过普宁好吃的，这个很一般外皮不脆） ✅牛肉粿条（随便找的一家，看得出来牛肉新鲜，汤底很鲜） ✅开元路古法甜汤鸭母捻（很好吃很大碗很多料，重点团购才10💰） ✅肠粉（好吃的，还加了溏心蛋 就是17💰比广州还贵） （本人建议！单独一个人出来吃不了牛肉火锅也吃不了鱼生生腌，就霍霍炫小吃吧。精髓就是少吃多餐。虽说潮州比较商业化，但是配合团购还是高性价比的😊） 	 🏨住哪里： 住在📍潮州古城内的一家民宿 不是节假日73💰一晚，挺舒适。 	 下一站：漳州#潮州  #穷游  #一人旅游  #广州周边游  #潮汕地区你们更喜欢去哪里旅游[投票]#</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1040g2sg3193po2pf5a8049sdc8ag1obceso4si0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>潮州一日游citywalk攻略</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>✅路线安排： 牌坊街→开元寺→广济楼→广济桥→韩文公祠→泰佛殿→潮州西湖→广济桥灯光秀 #每天写一篇旅游攻略#潮汕的烟火气#潮汕#游玩攻略#旅游攻略#值得N刷的宝藏出游地#城市文化和旅游#本地人做的攻略#潮州#潮州旅行</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1040g00831abb7vu0n21g5pjd7411onm79dche10!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>潮州一日游 | 超详细攻略（特种兵版）🚶🏻‍♂️</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>👀具体路线看图一 🖼️热门打卡景点看图二 🚅交通及物品准备看图四 ✨景点解析及门票看图五 ✔️最近天气还不错，很适合出游，潮州不大，1-2两天的行程足够了，如果姐妹们有更好的路线指南欢迎评论区告诉我😋😋 	 #潮州#一日游#旅游攻略#潮州一日游#潮州旅行#潮州古城#潮州旅游#潮州旅游攻略#潮州打卡#潮州牌坊街#潮州攻略#汕头旅行#游玩攻略#用一场旅行开启新年#城市探寻计划</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1040g00830v6etqk95c304702pm507st4l626s00!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>深圳回潮汕抢票攻略</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>无意间的发现！！！ 深圳北回潮汕无敌难抢票！ 这个是一个很好的备选方案！ 多买两站，中间上车。 深圳北—潮汕125/135 惠州北—潮汕144 价格相差不大！ #12606#12306抢票#12306候补车票#深圳#潮汕#春节#春节抢票#高铁抢票#高铁买票</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1040g2sg30u92drot5c4g5odio8o40qh34kvvfuo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>深圳出发🚝车票150💰以内直达城市！</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>深圳出发🚆🚝100元以内城市合集！实惠出行无压力‼😎 就在图八携🍊 🔍77特种兵，解锁100r以内宝藏目的地！！ - 可以根据自己的想法选择 👉时间 👉 价格 👉 只看高铁 👉 折扣筛选 真的超级实用，赶紧自己试试吧！！！ #深圳  #深圳出发  #深圳出发旅游  #广东旅游  #广东旅游攻略  #周边游  #周末去哪玩  #穷游攻略  #穷游党  #特种兵大学生  #高铁  #高铁出行  #火车票  #中秋旅游  #国庆节旅游  #2024出行攻略  #携程特种兵旅行  #特种兵说走就走</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1040g0k03172so73bjk005pbg2v985ipib2lhtt8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>广东‖周末不出省好去处🔥深圳出发看这里</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>别犹豫了，跟我们一起从深圳出发❗ 无论是充满历史韵味的古城🌸风光旖旎的海滨🌸宁静祥和的乡村🌸广东的每一个角落都在等待着你的探索。 一起出发，让这个国庆假期成为一段难忘的回忆～ - 【惠州之旅】 在南昆山的山林间⛰️感受大自然的清新与宁静； 在巽寮湾双月湾的沙滩🏖️享受阳光与海浪的拥抱； 在惠州古城的巷弄里，品味历史的韵味与岁月的痕迹。 - 【韶关之行】 在丹霞⛰️的赤壁丹崖间，惊叹大自然的神奇力量；在南华寺的古刹钟声里，感受佛教文化的博大精深；在乳源大峡谷的深邃峡谷中，体验探险的刺激与乐趣。 - 【潮汕之旅】 品味那一碗碗香气四溢的牛肉丸汤，感受舌尖上的潮汕美味；漫步在潮州古城的石板路上，欣赏那古色古香的建筑与文化遗迹；在汕头的海边，吹着海风，眺望那无边的大海🌊 - 【江门之行】 在开平碉楼与村落中，领略中西合璧的建筑魅力，见证历史的沧桑变迁；于小鸟天堂的葱郁林间，聆听百鸟争鸣的自然乐章，感受生态的和谐之美🐦在古劳水乡的纵横河道上，乘船穿梭如画景致，品味水乡的温婉柔情。 - 【肇庆之游】 在七星岩的湖光山色里，沉醉于奇特喀斯特地貌的绝美画卷，欣赏山水交融的诗意景致；于鼎湖⛰️的茂密森林中，漫步清幽小径，呼吸饱含负氧离子的清新空气，聆听大自然的轻声细语；在古城墙的斑驳砖石🧱旁，触摸岁月的痕迹，追溯历史的源远流长。 - 【清远之旅】 在连州地下河的神秘溶洞🕳️中，惊叹钟乳石的千姿百态，感受地下世界的奇幻莫测；于古龙峡的湍急溪流间，体验漂流的刺激快感，挑战自我的勇气极限；在南岗千年瑶寨的古老石阶上，探寻瑶族文化的深厚底蕴，领略民族风情的独特魅力。 - 【阳江之行】 在海陵岛的金色沙滩🏖️上，沐浴温暖阳光☀️拥抱湛蓝大海🌊享受悠闲的度假时光；于大角湾的热闹海滨，参与丰富多彩的水上活动，释放激情与活力。 - 【珠海之约】 在珠海长隆海洋王国的奇妙世界里，观赏海洋生物的灵动身姿🐳沉浸于精彩绝伦的动物表演；👩‍❤️‍👨于情侣路的浪漫海岸边，携手漫步，欣赏海景与城市风光交织的美丽画卷，留下甜蜜的回忆；在圆明新园的古典园林中，领略皇家建筑的宏伟气势，感受历史文化的博大精深。 - 也有深圳一日线路推荐哦，国庆天天发～ 【出行日期➕人数➕目的地】 #深圳#深圳旅游#广东#旅游#国庆#国庆旅游#广东美食#旅游攻略#惠州#广州</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>1040g2sg318dgphk6k4805nps2crg8uorp2quts8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>汕头➕南澳岛➕潮州，纯手写三日游～人均800</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>#小众旅行地 毕业了还不知道去哪玩的小伙伴们，穷学生攻略来了！ 四天三晚，人均800元（吃好喝好睡好）吃的超好！主要景点基本免费 攻略都在图上，收藏起来，去玩吧！ Day1:汕头小公园～吴记火锅～开埠文化陈列馆～汕头邮政总局～汕头旅行社～西堤公园～广场轮渡⛴️～潮人码头～龙眼美食街 Day2: 长尾山灯塔~田仔地质公园~钱澳湾度假村~钱澳湾灯塔~海丝广场~前江湾沙滩~葫芦山 Day3:三囱崖灯塔~青澳湾~自然之门~2号公路~孤独的树~黄瓜山北回归线 Day4:牌坊街～开元寺～广济楼～广济桥～韩文公祠～泰佛殿～西湖公园～广济楼灯光秀#南澳岛攻略#汕头美食#汕头攻略游玩攻略#潮州游玩攻略#潮州美食攻略#汕头美食攻略#被低估的宝藏城市#假期去哪儿玩#海边旅游推荐 	 🛵tips:汕头比较大而且景点分散，日行万步不如zfb&amp;wx🔍【haluo租电动车】get一辆长续航家用小电驴，大平台有保障，跑的久还方便，夕阳西下和朋友一起骑行超级惬意~ 👗衣服搭配 👔通勤穿搭:担心早晚温差的话可以带件👕薄衬衫 📷拍照穿搭:田园风连衣裙、长裙、特色服饰清新风:浅色/白色/浅蓝/浅色的条纹或格子/小碎花 👗文艺风:白色长裙/纯色棉麻，蓝色、米白、吊带裙等衣服 拍照打卡点: ✅跨海大桥可以在公交车上拍，也可以在后宅拍。 ✅三囱崖灯塔、长山尾灯塔:真的只是打个卡，有兴趣可以走走。 ✅风车山要去，很漂亮，适合打卡也适合放空.4二号公路:拍照很好看。 ✅北回归线在公园里，要20门票，旺季不建议去，要排队打卡，淡季可以去。 ✅海滩去小的不热门的更漂亮，有非常多海滩，看到哪个人少又漂亮就去那里! 价格详细我都在图片中标记了，真的不用花费什么钱，超便宜旅游，适合穷学生，穷打工族 有什么不懂的随时私信💌我 祝大家玩的开心～ #慢慢游世界#租电动车#汕头攻略游玩攻略#汕头租电动车#大平台租电动车用哈啰#小众旅游#被低估的宝藏城市#宝藏旅游地推荐#哈啰租电动车</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>1040g2sg315vcm5tciobg5n70p9n5qq884dchqgg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>火车盲盒到底是谁在开？！</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>人生就要passion，开个盲盒说走就走，来一段随心的旅游，9元火车盲盒值得拥有！低交通花费去潮汕玩！ p1同程旅行 p2马达出行 #同程旅行火车票盲盒#马达出行盲盒#潮汕#特种兵旅游</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>1040g00831a8k866bn20g5oukbli9goa9q96fa3g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>去了潮汕5次，熬夜整理的潮汕旅游攻略</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>#汕头美食#汕头攻略#汕头旅游攻略#汕头旅游#汕头小公园#潮州美食#潮州旅游攻略#潮州旅游#潮州旅游攻略#潮汕美食#潮汕旅游攻略#潮汕旅游#潮汕周边游</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>1040g0083144m5f0lho104a609gkfr6unr0a97c8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>深圳出发车票100r以内直达城市！！！</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>深圳出发车票100元以内到达城市合集！ 【特价火车票】 【火车小时达】 携cheng🔍77特种兵（最后一张图） - 还可以根据自己的想法选择👇 👇 👇 时间 价格 只看高铁 折扣筛选 超级好用！ #广东  #深圳  #深圳旅游  #周边游  #穷游攻略   #高铁出行    #周末去哪玩  #特种兵说走就走  #携程特种兵旅行  #2024出行攻略</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>1040g34o319qjq8mo7i0g5pbqodofd6rdc3lf5g8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>男朋友做的潮州旅游攻略🔥理工男逻辑就是强</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>🌟5-6月准备去潮州旅游的宝子💕看过来‼建议收藏起来~ . 🏨潮州住宿建议 ⭐潮米民宿 😆窗外就是牌坊街，晚上望出去的美景真的绝绝子 😆房间里的小沙发特别舒服，躺着看电视追追剧太惬意啦！ 😆1.8m✖2m的大床，和姐妹们一起住着简直不要太快乐 😆超大的双人浴缸，一次容纳两个人完全没问题，还给搭配了一次性泡澡袋，洁癖星人也可以放心使用～ 😆全屋智能家居，智能门锁是密码出入的，特别方便，小冰箱、饮水机、洗衣机家电也是一应俱全～ #旅游攻略#游玩攻略#小众旅游#旅游推荐#旅游#城市探寻计划#穷游攻略#出行攻略#大学生旅游#我的小众旅行攻略#潮州#潮州旅行#潮州打卡#潮州古城#潮州牌坊街#潮州旅游#潮州民宿#潮州旅游攻略@薯队长@走走薯</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>1040g008313curn76i0305p0mf4b526v15jflqio!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>潮汕旅游三日游超详细攻略</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>😁计划来潮汕的宝子一定要看，潮汕本地人整理的潮汕保姆级旅游攻略 	 游玩路线安排 	 汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #每天写一篇旅游攻略#旅游攻略#潮汕#周末去哪玩#人文景点分享#潮州旅行#汕头旅行#潮州#汕头#南澳岛</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>1040g00831agg6tq5n21g5pjd7411onm7fajokdo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>03女大📍潮州/两天一夜精华波旅游攻略❗️</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>欢迎✈️大家来千年古城潮州，漫步在古城的街道，感受这里的历史与文化，品尝地道潮汕美食，领略独特的潮州魅力❗️ 🚞交通 🚄高铁到潮汕站，可搭乘公交K2或高铁旅游专线前往市区，费用约7-10💰 饶平站：位于潮州市饶平县，也是潮州的一个重要铁路站点 ✈️飞机到揭阳潮汕机场，有直达潮州的机场公交，费用20💰 📝我的路线 ✅Day1: 💃牌坊街➡️开元寺➡️颐园➡️广济楼➡️广济桥➡️韩文公柯➡️泰佛殿➡️青龙古庙 ➡️广济桥➡️西马路 ✅Day2: 💃潮州西湖公园➡️北佛灯➡️新桥路➡️鎮海楼➡️除南文化馆➡️古大士庵➡️己略黄公祠➡️竹木门城楼 🍜 吃什么 🉑小吃：腐乳鸡翅、潮州炒冰、利和治茶、煎蚝烙、甘草水果、鱼饺、糖葱薄饼、麦粿、芋头粿、咸水粿、有肠粉、粿条汤、牛肉丸、鱼丸、蚝烙、春卷、鸭母捻 🉑主食：潮汕牛肉火锅、潮州鱼生、卤鹅、粿汁、生腌海鲜、潮州牛肉粿条、凤凰炸豆腐 🍲美食推荐 ✅古城内的西马路、牌坊街、义安路、昌黎路是集中品尝潮汕小吃的好地方 🏠 住哪里： 📍潮州古城离牌坊街、广济桥等景点很近，吃喝玩乐非常方便❗️ 📖去潮州需要知道的小tips ✅古城出行：古城内道路较窄，建议租电动自行车出行，租金大约50元/天，节假日价格可能上涨。 ✅广济桥灯光秀：推荐晚上去观赏。非法定节假日，周一至周四每天一场，（20:00）法定节假日及周未休息日每天两场（20:00、21:30）每场只有10分钟，人很多，找好视角好的地方📷嘎嘎出片 ✅带上重要的证件，学生门票半价❗️ ⭐️我的花销🈴集416💰 🚞深圳➡️潮州123.5💰住52r（雅斯国际，两个人aa之后）行30 吃180💰 🎫门票30💰 	 #潮州#潮汕#潮州旅游#潮汕美食#潮州美食#潮州两天一夜#潮州旅行攻略#潮州古城#潮州牌坊街#潮州攻略#潮州旅游攻略</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>1040g008317p69kn1ka005obp6pggk2arqki2110!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>深圳出发潮州，两天一夜，人均600够吗？</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>🕹地点：深圳—潮州 先从深圳北出发坐高铁到潮汕站，高✨铁票🚅：💰135（往返💰270） ✨天数：两天一夜 ✨人数：两人 🕹Day1：潮汕—潮州—牌坊—西马路—开元寺—广济楼—广济桥（都在一块地方） ✨潮汕站打滴（💰45）或者坐k1（💰8）专线公交直达牌坊街，我们当天入住的是一家比较特色的名宿，环境很不错。 入住完就去逛牌坊街，不过不要在牌坊街买东西吃，又贵又不好吃，可以去西马路吃，就在牌坊街隔壁，徒步过去就行，逛完牌坊街直接就可以看到开元寺，可以进去逛逛，然后去广济楼拍拍照，打打卡，赶在四点之前去广济桥，因为五点半就停止售票，要拆船了🛶 ✨广济桥门票：💰20 牌坊街和广济桥白天晚上风景不一样，牌坊街晚上亮灯很好看，拍照很出片，广济桥晚上八点和九点有灯光秀，要早点去占位置，不然什么都看不到，太多人了，我们就去晚了，什么都没看到 🕹Day2：潮州西湖—泰佛殿—韩文公祠—返程 ✨我们是早上徒步🚶‍♀️去西湖的，湖里可以划船🛶脚踩的，可以体验一下，挺费体力的😢 ✨双人：💰50/小时 ✨3-4人：💰70/小时 🍣中午在附近吃的鱼生🤤味道还行，不过吃不惯腥和生食的小伙伴们还是不要尝试了 下午骑共享电动🚴‍♀️去的泰佛寺🕍 寺庙很小，只适合拍照，周末人很多，拍照的话要穿上傣族的衣服比较出片😎服装在寺庙门口有很多💰20一套💰30一套的都有，看个人选择 拍完照后可以去韩文公祠逛逛，羞羞的铁拳有个场景就是在这取的景 ✨逛完时间差不多啦，🚅打滴去潮汕站回大深圳打工啦 🍱潮汕美食：牛肉火锅、腐乳鸡翅（巨好吃）、车轮饼、砂锅粥、鱼生、生腌、牛杂粿牛肉粿、肠粉、甘草水果、春饼.... 😎期待下次出游✌ #不想上班#深圳出发#潮州#旅游攻略#小红书创作者中心</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>1040g00830uv7mgdb582g5p1ep404cb66s06obgg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>深圳-潮州 两天一夜</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>🌟消费 两人旅游，人均550r 	 🌟出行 ​高铁🚄-顺风车-小电驴 ​深圳北-🚄-潮汕站（120r 2h）-顺风车-官塘潘记牛肉火锅-打车-酒店🏨-小电驴反复绕潮州古城-酒店-打车（40min左右，40r左右）-潮汕站-🚄-深圳北​（哈啰顺风车打车便宜些！） ​ ​🌟饮食 	 官塘潘记牛肉火锅（100r）||​甘草水果（七丛松28r）||​永记小吃​（蛋黄卷 马蹄卷 芋头卷 春卷26r）||​反沙芋头和红薯（15r）||​惠来绿豆饼（13r）||潮州三宝（60r）||老四麦粿（5r）||​花阿姨电影水果汁（16r）||昌黎车轮饼（4-6r/个）||​六六海石花（红豆沙和海石花）||老戏园糖葱薄饼||腐乳鸡翅（7r）||谢焕亮杏仁茶（6r）||谢记肠粉（7r）||​陈杨记点心坊（不到2r/个）||皮蛋弟砂锅||咸水粿（5r） 	 📢两个人吃的是真多啊（价格都是左右浮动，有的价格我也忘了），食物味道评价具体见p6 ​ ​🌟景点 ​1⃣️泰佛殿:免费，在江对面，远一些，可租衣服拍照（对面可停小电驴2r），不拍照的话，也没啥逛的，比较小。 ​2⃣️广济桥:20r，好看是好看，觉得票价挺贵的，半小时都逛不到的那种。 ​3⃣️青龙古寺:小寺庙，过节应该会比较热闹，那会去挺冷清的。 ​4⃣️开元寺:小寺庙，挺好拍的，人也算比较多，挺大的，还算好逛。 ​5⃣️广济楼:晚上去，人比较多，我们没排上灯光秀，不过拍照就挺好看的。 ​6⃣️牌坊街，西马路 ​骑着小电驴，那几条路来来回回逛，没啥特别的，就是感受一下潮汕的街区文化。 ​7⃣️潮州西湖 ​买点吃的过去逛，还是很惬意的，就是天气热的话就难受了，有老人在那打太极。 ​8⃣️镇海楼 ​好像没法进去，就打了个卡，当时对面有个展览，就一起逛了。 	 📢各个点的大概位置在最后一张图，没在图上的都是离的比较远的。 ​ ​🌟住宿-府之城客栈 120r左右，​环境很好，老板超好，洗浴都是一次性用品，很干净，可租小电驴（50/天，我们从前一天下午15点到第二天下午17点，老板也给我们算的50！！！）离古城2公里左右，小电驴很方便，走路就算了。 ​ ​🌟总体感受 很有生活气息的小县城，觉得生活紧张，确实可以去逛一逛，放松放松，周内人其实不多，自驾方便很多，吃的就很难评，不适合我这种爱吃辣的人，太甜太腻，每天都需要柠檬水解腻。 ​#这个模板有点东西#在过一种很龙的年#旅行碎片#潮州#攻略#潮州两天一夜#深圳周边游#旅游#plog</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>1040g2sg314sc6mgpgs3g5n9r21i4ae7b2n0iio0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>潮汕Tips | 周末两天一夜玩转潮州&amp;汕头✨</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>潮汕并不是一个城市 潮州、汕头、揭阳、南澳岛都属于潮汕 每座城市都有独特的魅力 这次从深圳坐高铁出发 分享一个潮州&amp;汕头的Citywalk逛吃地图 〰️〰️ 出行指南 🚄高铁 ✅往：深圳北➡️汕头站（8:17-10:36）💰133 ✅返：潮汕站➡️深圳北（19:34-21:20）💰122 碎碎念：潮汕站在潮州，汕头站在汕头，潮州、汕头之间可以打顺风车，1-1.5h可达，价格40-50元 · 🚌交通 潮州、汕头没有地铁，车站去市区要打车或者坐公交，市区内景点比较集中，多以步行为主，租个电动车出行，也很方便 ✅潮州：“潮汕站➡️牌坊街”公交约1h ✅汕头：“汕头站➡️小公园”公交约1h 碎碎念：潮州古城限制共享电动车，一进入就会断电，建议步行或者租电动车，汕头骑共享电动车很方便，不建议自驾，会堵车 - 住宿指南 ✅潮州：住“牌坊街”附近 ✅汕头：住“小公园”附近 碎碎念：为了在汕头看一场橘子日落，还能在潮州看一场广济桥的灯光秀，先去汕头，晚上坐顺风车去潮州，然后在潮州住下 - 路线指南 🗓Day1·汕头小公园Citywalk 🗺️路线：中山纪念亭➡️老妈宫戏台➡️汕头邮局大楼➡️TEMP'COFFEE➡️开埠文化陈列馆➡️汕头旅社➡️西堤公园➡️潮人码头➡️顺风车（1.5h）去潮州广济楼 ✅汕头小公园 集美食与潮汕文化于一体，打卡“汕头”大字、体验潮剧文化，citywalk的好去处 ✅西堤公园➡️潮人码头 民国建筑馥园，打卡橘子日落🌄 · 🗓Day2·潮州古城Citywalk 🗺️路线：西马路小吃街➡️开元寺➡️牌坊街➡️广济楼➡️广济桥➡️韩文公祠➡️泰佛殿➡️潮州西湖 ✅牌坊街 特色的文化古街，中式明清牌坊和错落的骑楼，有很多小吃 ✅开元寺 红墙配古寺的“故宫”即视感 ✅广济楼+广济桥（🎫20r） 穿过广济楼，便是广济桥，傍晚会拆桥，即“过河拆桥” ✅韩文公祠 纪念韩愈的公祠，了解韩愈的历史，有碑文书法，沿着石阶可以俯瞰潮州 ✅泰佛殿 潮州小泰国 - 小吃推荐 ✅汕头（具体见图2️⃣） 主要集中在商平路、跃进路、十二中 ✅潮州（具体见图3️⃣） 主要集中在开元路、西马路、太平路 〰️〰️ #潮汕#潮汕美食#潮汕旅游攻略#潮州攻略#潮州美食#汕头攻略#汕头美食#深圳周边游#广东旅游#深圳周末去哪儿</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>1040g2sg318kcnqqtjq904a4ld2unf8jru7jqojo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>潮汕旅游路线安排！汕头+南澳+潮州</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>潮汕旅游懒人版攻略，计划来潮汕的宝子一定要看，😎汕头+南澳岛+潮州的超详细旅游攻略 	 ✅汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 ✅南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 ✅潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #大声安利本地美食#每天写一篇旅游攻略#旅游攻略#旅行吃喝玩乐#我的小众旅行攻略#游玩攻略#潮州#汕头#南澳岛#潮汕旅游</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>1040g008317q7g9l4ka1g5pjd7411onm72uqmuc0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>深圳打工人周末旅行 | 第1️⃣站 省内潮州</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>🙌作为每月都来一次的靓女👩🏻‍🦰，推荐一些本地人才知道的好吃好喝地～ . ⏳行程安排： 周五下班：🚄高铁深圳北-潮汕站-8块钱大巴🚌到南桥市场（牌坊街入口） 周六周日：🚶‍♀️‍➡️city walk+吃吃喝喝 周日晚上：🚄高铁潮汕站-深圳北 . 🍽️必吃： ❇️肠粉：芝麻酱代表-猷巷潮味肠粉店&amp;酱油肠粉代表-汕头肠粉店 ❇️粿汁： 开元老七粿汁 ❇️牛肉粿条：一定要认准商标哦🥢镇记老尾牛杂，配上潮汕特有的南姜末，美味。 ❇️好记牛肉，各大点评网上评论不超过10条的冷门店铺，但是环境就很一般啦，人均80吃到撑，蔬菜都有送~ ❇️金龙大酒店：手推车的老式早茶店，平价又好吃，非常推荐核桃包🥹 ❇️新权记：比较实惠的潮州菜餐厅，喝喝汤吃吃蚝烙等。 ❇️余时冰室绵绵冰：一天会吃两碗🍧 ❇️牌坊街中间司徒世家的粽球：找到牌坊街边司徒世家的牌坊，会有阿婆在那里卖粽球～ . 🏡住宿：牌坊街里 ✅我家客栈：古香古色的客栈，牌坊街正中心，开元寺正对面，还有整个牌坊街唯一的停车场，自驾游什么的都特别方便 . 👣必玩： -牌坊街：免费的景点，骑楼文化，白天可以走一走旁边的小巷，说不定会遇到隐藏的惊喜小摊 -广济桥：20元一位，中国第一座开放式桥梁，四大古桥之一 -滨江长廊：一条江边公路，夜间风景美不胜收，晚上有灯光秀 -西湖公园：钱来表情包同款打卡 -开元寺：免费，可求一个20元开光首饰盲盒 #打工人旅游#国内旅游日常</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>1040g2sg316r0j25u44a05ooe3r5kgco228n2s98!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>深圳打工人周末旅行 | 第1️⃣站 省内潮州</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>🙌作为每月都来一次的靓女👩🏻‍🦰，推荐一些本地人才知道的好吃好喝地～ . ⏳行程安排： 周五下班：🚄高铁深圳北-潮汕站-8块钱大巴🚌到南桥市场（牌坊街入口） 周六周日：🚶‍♀️‍➡️city walk+吃吃喝喝 周日晚上：🚄高铁潮汕站-深圳北 . 🍽️必吃： ❇️肠粉：芝麻酱代表-猷巷潮味肠粉店&amp;酱油肠粉代表-汕头肠粉店 ❇️粿汁： 开元老七粿汁 ❇️牛肉粿条：一定要认准商标哦🥢镇记老尾牛杂，配上潮汕特有的南姜末，美味。 ❇️好记牛肉，各大点评网上评论不超过10条的冷门店铺，但是环境就很一般啦，人均80吃到撑，蔬菜都有送~ ❇️金龙大酒店：手推车的老式早茶店，平价又好吃，非常推荐核桃包🥹 ❇️新权记：比较实惠的潮州菜餐厅，喝喝汤吃吃蚝烙等。 ❇️余时冰室绵绵冰：一天会吃两碗🍧 ❇️牌坊街中间司徒世家的粽球：找到牌坊街边司徒世家的牌坊，会有阿婆在那里卖粽球～ . 🏡住宿：牌坊街里 ✅我家客栈：古香古色的客栈，牌坊街正中心，开元寺正对面，还有整个牌坊街唯一的停车场，自驾游什么的都特别方便 . 👣必玩： -牌坊街：免费的景点，骑楼文化，白天可以走一走旁边的小巷，说不定会遇到隐藏的惊喜小摊 -广济桥：20元一位，中国第一座开放式桥梁，四大古桥之一 -滨江长廊：一条江边公路，夜间风景美不胜收，晚上有灯光秀 -西湖公园：钱来表情包同款打卡 -开元寺：免费，可求一个20元开光首饰盲盒 #打工人旅游#国内旅游日常</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>1040g2sg316r0j25u44a05ooe3r5kgco228n2s98!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>📍汕头二天一夜攻略 | 潮汕的美食之旅</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>✨ Day 1 🌅 早上9:30深圳自驾出发，12:45到达汕头，稍微有一丢丢堵车，到达之后就能感受到这座城市的氛围是松弛又热情！ 🍽 午餐推荐：天汕牛肉火锅 - 🌟 新鲜的牛肉，清爽的汤底，Q弹的牛丸、爽脆的胸口油，再搭配上自己喜欢的酱料，简直是人间美味，就连湿炒牛河都好吃到要两份的节奏，吃完后心情大好~ 🏖 下午：入住酒店、出发小公园、汕头旅社、镇邦美食街逛吃 - 💕 小公园亮灯以后拍照很出片，氛围感拉满，汕头旅社人头攒动，拍照比较困难，这三个地方都是属于比较成熟的商业街，纪念品价格相对贵一点，打卡一下就可以了，不用留太多时间，本想来还去广场坐轮渡的，费用好像是1元，我们太饿直接下一站~ 🍢 晚上：龙眼南路小吃 - 🍜 大家一定要来吃的一条街，各种美食一应俱全；1、小吴肠粉（排队但很快，值得一试）2、屋里甜汤（手工现搓先做，有点慢）3、老山合（肉松真的好吃，小朋友喜欢）4、揭阳老牌腐乳鸡翅（现炸出来的口感是难以形容的惊艳，外皮酥脆，内里肉质滑嫩爆汁，回深之后一直念念忘的就是这口腐乳鸡翅），整条街人不少，但大家脸上都带着满足的笑容，绝对让你停不下来！（不好停车，节假日会被抄牌） 🍽 晚餐推荐：围炉夜话卤水火锅 -🍲我们从龙眼南路出来就21：00了，围炉夜话还在排队，我们等了大概10分钟，第一次吃卤水火锅，开始吃比较淡，后面越煮越入味，海鲜、牛肉、内脏都很新鲜，可以试一下，但排队一小时以上个人就觉得没必要了。 ✨ Day 2 🌅 上午：龙眼路南路 - 🏛睡到自然醒，继续龙岩南路吃吃吃；1、老牌福记加浓豆浆，推荐他们家的小油条2、小吴肠粉（皮薄馅料多，随便点不踩雷）3、惠来绿豆饼（甜的、咸的都有，还推荐老香黄可以泡水喝） ☕ 中午：妈屿岛 - 🍃大人们海边放空，孩子们玩水玩沙，感受海风拂面，如果天气好的话拍照应该非常出片好看！我们去的时候是阴天，也很好一点都不晒，吹着海风散散步很舒服，毕竟面朝大海总是让人心情愉悦的~ 🏛 下午： - 🍃 从岛上出来之后随便找了一家汤粉店，汤很鲜味很正，隔壁鲜果切买的水果无敌好吃，但我都不记得名字了，感觉比汕头旅社那边好吃，抱着鲜果切我们踏上了回深的路，结束美好的旅程。💕 #汕头旅行#汕头美食#深圳周末去哪儿#美食分享#汕头二日游#汕头旅社#汕头旅游攻略@薯队长@走走薯@生活薯</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>1040g008319ij3q5on21g49hi8kgkiotr66epuqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>深胶己人抢不到高铁票看这里，巴士直达潮汕</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>就是这个巴士@小红巴士 ，抢不到高铁票问题也不大😎，小红巴士🚍推出的国庆专线，去汕头178，去潮州、揭阳188，不用挤地铁🚇去换乘🔄，高速直达~还挺方便的✌️，想回家🏠或者去潮汕玩的友友们可以码住~ 	 深圳↔汕头178 深圳↔潮州、揭阳188 🚌深圳站点： 深大地铁站A4出口右手边上楼梯 大剧院地铁站E出口 	 🚌汕头下车站点: 潮阳和平酒店(鱼场北路店) 汕头汽车总站公交站 	 🚌潮州下车站点: 潮州人民广场 	 🚌揭阳下车站点： 机场东收费站 	 #巴士#小红巴士#潮汕#胶己人#潮汕人#深圳#潮汕人在深圳#汕头#潮州#揭阳</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>1040g2sg3184jfb1344a05nmu2cq0bkai755m7m0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>深圳出发旅游路线 | 5百多路费玩9️⃣座城</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>深圳—汕尾——潮州——厦门——泉州——福州——南昌——赣州——深圳 深圳-汕尾       动车约1时      二等69 汕尾-潮汕       动车约1时      二等66 潮汕-厦门       动车约1.5时    二等95 厦门-泉州       动车约1时      二等35.5 泉州-福州       动车约1.5时   二等66 福州-南昌       火车约4.5时   硬座75（z392） 南昌-赣州       火车约4时      硬座62.5（t397） 赣州-惠州       火车约4.5时   硬座54.5 惠州-深圳       火车约1.5时    硬座16.5 总共大交通💰540，一路打卡9️⃣座城🐮 	 ⭐单程时间不超5个小时。 ⭐🚄为主，🚞为辅助，不会太累。 ⭐环城旅游，不走回头路。 ⭐游玩时间15天左右🉑走完这9️⃣座城。 ⭐敲多美食，瓦罐汤、拌粉、烫皮、牛肉火锅、牛肉粿条、菜粿、无米粿、肠粉、小米、菜茶、牛肉丸、鱼丸、海鲜、水果捞、蚝仔烙、麻糍等等。 #穷游路线#只是为了几个瞬间#暑假旅游#寒假旅游#五一去哪玩#假期去哪玩#国内游旅行攻略#深圳旅游#汕尾旅游#潮州旅游#厦门旅游#泉州旅游#福州旅游#南昌旅游#赣州旅游#惠州旅游</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>1040g008311egsi8c6q0g5p3b053qaj2ou9vs5lg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>深圳周末1.5h直达｜潮州逛吃看这一篇就够了</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>🚅交通：早上10点深圳北高铁出发，1.5h到潮汕站，南门搭K2公交车，直达酒店/潮州古城。 	 住宿：希岸酒店潮州古城牌坊街店（酒店位置很好，不在牌坊街内不吵，但也不远，很方便，卫生环境也挺OK） 	 懒人旅游，一定是休息够了才有力气玩，所以在酒店睡了个午觉，下午3：30才磨蹭出门。 	 划重点！逛景点之前先租个小电驴，旅游体验直接up一个星级~60R一天，各个景区能跑几个来回了。 开冲！🛵 	 周六行程：【西马路→开元寺→牌坊街→古城墙→广济桥夜景】 注：晚上6-7点亮灯，8点灯光秀 牌坊街的三轮车导游不要坐！很坑，一小圈60-100R，还会拉你去买东西，地方不大自己慢慢逛就行！ 	 周日行程： 【希岸酒店→西新菜市场→泰佛殿→广济桥→韩文公祠→回西马路买小吃】高铁回家~ 	 早上10点睡饱出门，先跑到古城里双生肠粉人太多了，不想排队就骑着小电驴去了附近的西新菜市场，仿佛开启了本地人副本，很多好吃的都隐藏在这！ 吃货必备： 官塘老牌鱼生：鱼生、虾生、生腌蟹（美团有尝鲜团购，图片是49的两人餐，分量足足，味道也很好！团购不含生腌蟹，60R。因为跑了很多家鱼生店，要么生意不好，要么很贵，最后摆烂找的这家真的性价比很高！） 西马路永记小食：蛋黄卷（强推！） 西新阿明肠粉 西新菜市场门口的笋粿 西新陈礼冰手磨豆浆 三利步行街门口旁边的黑芝麻茶 老柯特色小食的蚝爽、反沙芋（但这家要按人头收1块钱茶水费，有些费解） 其他记不得店名但随便买也不踩坑的： 咸水粿、烤粿条、春饼、海石花、油柑汁（加橄榄的更好喝！） 随便买踩坑了：腐乳鸡翅（鸡翅没熟，腐乳味不重，油太重） 总之是个吃＞玩的城市，作为周末休闲游还是不错的~ 说点不太好的体验：K2公交车司机不太有耐心和礼貌，扫码支付要先和司机说哪站下，他手动设置后金额后再扫码。 #深圳周末去哪儿#周边游#旅行#潮汕#潮州#被低估的宝藏小城</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>1040g00830s0qgqcr2m0g4a2vsshh82nqta32sbg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>深胶己人抢不到高铁票看这里，巴士直达潮汕</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>就是这个巴士@小红巴士 ，抢不到高铁票问题也不大😎，小红巴士🚍推出的国庆专线，去汕头178，去潮州、揭阳188，不用挤地铁🚇去换乘🔄，高速直达~还挺方便的✌️，想回家🏠或者去潮汕玩的友友们可以码住~ 	 深圳↔汕头178 深圳↔潮州、揭阳188 🚌深圳站点： 深大地铁站A4出口右手边上楼梯 大剧院地铁站E出口 	 🚌汕头下车站点: 潮阳和平酒店(鱼场北路店) 汕头汽车总站公交站 	 🚌潮州下车站点: 潮州人民广场 	 🚌揭阳下车站点： 机场东收费站 	 #巴士#小红巴士#潮汕#胶己人#潮汕人#深圳#潮汕人在深圳#汕头#潮州#揭阳</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>1040g2sg3184jfb1344a05nmu2cq0bkai755m7m0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>本地人带你玩转潮汕三市💥</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>📍行程安排：潮州➡️汕头➡️揭阳 ✳️潮州游玩路线：潮汕站—牌坊街—开元寺—广济桥和广济楼—韩文公祠—潮州西湖—西马路美食街 ✳️汕头游玩路线： 1️⃣汕头站—汕头小公园—老妈宫戏台—汕头邮政总局—汕头旅社—西堤公园—广场轮渡—潮汕历史文化博览中心 2️⃣南澳岛：南澳大桥—长山尾灯塔—田仔地质公园—钱澳灯塔—前江湾沙滩🏖️—四海取景地—三囱崖灯塔—青澳湾沙滩—走马埔—森林公园—出岛 ✳️揭阳游玩路线：揭阳站—揭阳楼—进贤门—揭阳学宫展览馆—城隍庙—中山路—西湖公园（揭西和普宁的美食很多，吃猪脚和看海去惠来） -- 📍如果你想来潮汕，我推荐过年来，来这边体验潮汕的传统文化❗️每个村每个镇都有庆祝新春的习俗。从初一到十五，营老爷、英歌舞、舞狮、舞龙、铜鼓巡逻、游灯会、猜灯谜等活动。 -- 📍潮汕美食推荐 中国美食看广东，广东美食看潮汕。这边的美食真的太多太多了，肠粉、牛肉火锅、湿炒牛肉粿、潮汕生腌、潮汕腌制水果、无米粿、红桃粿等各种粿、潮汕的汤粉面、蚝烙、捞面…潮汕好吃的东西太多啦，在潮汕天天都会吃撑的。 -- ✅安排的路线都是偏大家来游玩的，而且交通也还方便点的，其他的景点和美食欢迎👏大家补充。 潮汕会是你2024年的想去的地方吗❓ #汕头旅居  #旅居汕头  #汕头吃喝玩乐  #潮汕三市  #汕头小公园  #潮州牌坊街  #揭阳进贤门  #汕头旅游  #汕头旅行攻略  #汕头五一  #五一潮汕游  #潮州广济桥  #潮汕美食  #潮汕牛肉火锅  #汕头南澳岛  #汕头站  #汕头旅社  #广场轮渡  #五一去哪玩  #五一  #五一去哪玩  #周末去哪玩  #周末快乐时光  #周末潮汕游</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>1040g34o3125sfoavke005pcddunoidimskf4fog!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>深圳到潮汕周末游玩路线</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>📸大概游玩路线（两天一夜） 泰佛殿👉牌坊街👉开元寺👉广济楼👉广济桥👉南澳岛👉汕头龙眼南路 	 第一天：深圳坪山站-潮汕站 🚅高铁119元：高铁一个半小时，上午早一点过去就行（也可深圳北过去：票价135元）。 🚖打滴滴到酒店70元：金额是个大概的数，我们是从高铁站打车到🍊桔子酒店（离广济楼、泰佛殿很近）。 🏨酒店350元：酒店就看自己选了，价格不定，最好选择华住会上面的连锁酒店，整体会好一些。 🏰泰佛殿0元：在酒店放完行李，直奔泰佛殿，无需门票🎫，门口非常多吆喝租衣服拍照的商家，大家自行斟酌，我怕他们不洗，就没拍；进去以后自己拍照游玩，这里面建筑确实很好看，不过园区不大，拍一拍逛一逛，顶天一个小时就差不多啦～ 🏚牌坊街0元：无需门票🎫，牌坊街与泰佛殿就一座桥的距离，逛玩泰佛殿可以打车过去，也可以坐公交车。到了牌坊街逛一逛吃一吃，油柑汁、腐乳鸡翅比较推荐，不过里面吃的容易踩雷，按本地人说就是“除了景区里面的都好吃”，所以大家自己看着买吧。 🏰开元寺0元：在牌坊街一直往前走就会看到开元寺，里面非常好看，很有氛围，屋顶嵌瓷一定要看看，很热闹～ 🏚广济楼—广济桥20元：广济桥20门票，从开元寺出来往左一直走，会看到城墙，那边出去就是广济桥了，自己去拍拍照打卡，上桥门票20即可。晚上要看灯光秀的可以逛到8点，中间休息休息，8点有灯光出来挺好看的，但是人特别多。 	 第二天：潮汕站——汕头站（越早越好） 🚅到汕头站24元：一等座24，二等座12，自己选择，反正也就十几二十分钟～ 🏨酒店350元：价格不等，可以住万象城附近，就在龙眼南路前面，我们住在高铁站旁边的星程酒店，因为坐公交就能直接上南澳岛。 🌊南澳岛0元：建议早上早一点坐公交上岛，人少很好玩！公交是161A，12元就可以，如果是开车的话要96元过桥费。上岛之后在游客中心站下车，下车对面美宜佳旁边就是租电驴🛵的地方，我们租了一上午是50，。跟着路线骑车环岛游就行，一路上都很美，记得做好防晒！！ 🌈龙眼南路0元：来了龙眼南路就是逛吃逛吃了，很多网红美食店都排长队，吃哪家就自己选择吧，我们没去排队等，随便找的，可以尝尝狮头鹅、牛腩饭、反沙、甘草水果、腐乳鸡翅、牛肉火锅、沙嗲面、海鲜等等 🚅汕头回深圳132元：晚上高铁2小时就到。 	 #深圳潮汕#潮汕#南澳岛#浪漫的分享者#旅游攻略#旅行吃喝玩乐</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>1040g008317u1ckssju705n1bf471m576a3rnvqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>深圳打工人幸福周末|汕头一日游💃</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>❤️提前一周多买票【8:14 - 10:36】到汕头站 ❤️11:15 打车到《小吴肠粉》！打车（18min）公交梅园站下车 （40mins+ 我们赶时间所以打车啦） 周末去会很多人排队，排队的时候点单旁边的《一杯潮茶》，可以在门口拍照📸。推荐海盐黄皮冰茶，然后轻乳茶系列(人间烟火)会有个小壶🏺拍照📸，几个人买一份就可以了。肠粉😋好吃，推荐海鲜猪肉！小份9块💰分量也很足。 ❤️12:00 步行到旁边的《普宁反沙番薯芋头》，甜甜的杂粮炸物，普宁特产，吃两口路上慢慢吃。 ❤️12:30 打车（11min）到达小公园。旁边也有公交（30mins+） ❤️买了明信片，可以参照打卡！25十张，一块钱买邮票就可以寄给远方的朋友 ❤️买了汕头文创雪糕15💰 ❤️小公园依次打卡存心善堂，百货大楼，老妈宫大戏台/关公庙，汕头邮政总局大楼，汕头旅社 哐哐拍照📸哐哐逛！ ❤️13:45 步行到达汕头旅社，打卡！旁边有家潮汕生腌可以尝尝，钢铁肠胃可以，小伙伴哒咩了，我也没吃上。 ❤️14:00 打车去吃《杏花吴记》潮汕牛肉火锅 (10min)可美团/大众点评线上排队(50个号预计排队一小时)！店很大周末一般不用排队但是坐满90% 哐哐吃肉🥰，两个人四盘肉140。 ❤️店旁边一点就是《酸袅袅甘草水果》，买了一盒32💰回去高铁上吃🤤（25一斤，部分水果50） 马路对面还有一家吴记甘草（懒得过马路 ❤️15:50 打车冲汕头站(20min+，看沿途红绿灯🚥情况) ❤️【16:32 - 18:41 】回深圳 我们是提前买票迟一点时间段的车票售罄了，但是走的时候看票其实六点多的车票还可以改。 如果时间充足的友友可以从汕头旅社步行去做渡轮，再逛一会！ 特种兵出行总结完毕，吃吃喝喝玩玩乐乐！#23fall港硕#一日游#深圳实习#汕头旅行</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>1040g00831459i71tic4g4a6m6dq39ko32sej2g8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>📍潮汕｜泉州至潮汕 人均不到800！</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Day1⃣️ -上午 动车8：35-10：41泉州至潮汕站 首选K2公交到奎元路口站下车（5元以内/人）也可坐潮州古城专线（15元/人）图最后有时刻表 🚌专线和公交坐车的地方都在一起 上车点基本都是专线卖票的在拉人买票 ❗️专线基本不用等直接扫码上车 公交的话就需要等 最好到了就排队 不然排到后面上车没位置坐 只能一路站着 到第一个下车点差不多三四十分钟 打车至官塘兄弟牛肉火锅（莲云店） 店内可以打卡“潮州府城” 吃完打车回酒店休息 	 -下午 泰佛殿-韩文公祠（🆓美团提前预约）-广济桥（票价20）-广济楼-牌坊街（开元寺在里面） 广济桥工作日应该是4:30不能进入了 周末会延迟到5. 可以关注一下时间 ❗️8:00到8:15广济桥有灯光秀 七点半就可以过去咯 个人观感一般 没什么特别的 还没八点就里三层外三层的都是人 我看了两三分钟就走了 结束要走发现打不到车 晚上古城会有交通管制 车基本进不来 只能走路或者打摩托坐小白出去 建议在牌坊街逛吃逛吃完就来广济楼拍拍照就可以走了 没必要凑灯光秀的热闹 想看的话上网搜一下吧哈哈哈 😋牌坊街打卡美食（没打勾的没吃 油柑汁✔️老四麦粿 腐乳鸡翅✔️ 成川治茶✔️ 湖镇老尾牛杂✔️ 惠来绿豆饼✔️ 顺顺糯米铺 	 Day2⃣️ -上午 顺风车到杏花吴记牛肉火锅 提前一天约车！ 我们九点半到店 是第☝️桌！哈哈哈 不得不感叹服务是真好 门口有专门迎宾 还没下车就帮忙开门 撑伞遮太阳 还会帮忙开后备箱拿行李 对比第一天吃的官塘兄弟（中规中矩） 杏花吴记的牛肉更好吃 炒鸡嫩 果然名不虚传 🛵吃完坐共享到汕头小公园 按路线拍拍拍（图三 小公园不大 走走停停两个小时就能走完 	 -下午 ⛴️到广场渡轮 两元往返 单趟就十分钟左右 往返包含上下船时间差不多半个多小时 建议坐二楼景观比较好 还会有工作人员教你拍汕头轮渡独特机位噢 	 定位细姨甜汤 打车到龙眼南路 😋打卡美食 楼下鸡翅✔️ 细姨甜汤 普宁反沙番薯芋头✔️ 长平肠粉✔️ 邻家果园水果 家常牛肉 亚鸿甘草水果✔️ 亚强果汁冰✔️ #吃喝玩乐薯#我是旅游吃喝特种兵#旅行就要逛吃逛吃#潮汕#潮汕美食#潮州#汕头#旅行#小公园美食#汕头小公园</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>1040g2sg31a64a4b0ngbg4a7np6dff7pu65hb2tg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>📍潮汕｜泉州至潮汕 人均不到800！</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Day1⃣️ -上午 动车8：35-10：41泉州至潮汕站 首选K2公交到奎元路口站下车（5元以内/人）也可坐潮州古城专线（15元/人）图最后有时刻表 🚌专线和公交坐车的地方都在一起 上车点基本都是专线卖票的在拉人买票 ❗️专线基本不用等直接扫码上车 公交的话就需要等 最好到了就排队 不然排到后面上车没位置坐 只能一路站着 到第一个下车点差不多三四十分钟 打车至官塘兄弟牛肉火锅（莲云店） 店内可以打卡“潮州府城” 吃完打车回酒店休息 	 -下午 泰佛殿-韩文公祠（🆓美团提前预约）-广济桥（票价20）-广济楼-牌坊街（开元寺在里面） 广济桥工作日应该是4:30不能进入了 周末会延迟到5. 可以关注一下时间 ❗️8:00到8:15广济桥有灯光秀 七点半就可以过去咯 个人观感一般 没什么特别的 还没八点就里三层外三层的都是人 我看了两三分钟就走了 结束要走发现打不到车 晚上古城会有交通管制 车基本进不来 只能走路或者打摩托坐小白出去 建议在牌坊街逛吃逛吃完就来广济楼拍拍照就可以走了 没必要凑灯光秀的热闹 想看的话上网搜一下吧哈哈哈 😋牌坊街打卡美食（没打勾的没吃 油柑汁✔️老四麦粿 腐乳鸡翅✔️ 成川治茶✔️ 湖镇老尾牛杂✔️ 惠来绿豆饼✔️ 顺顺糯米铺 	 Day2⃣️ -上午 顺风车到杏花吴记牛肉火锅 提前一天约车！ 我们九点半到店 是第☝️桌！哈哈哈 不得不感叹服务是真好 门口有专门迎宾 还没下车就帮忙开门 撑伞遮太阳 还会帮忙开后备箱拿行李 对比第一天吃的官塘兄弟（中规中矩） 杏花吴记的牛肉更好吃 炒鸡嫩 果然名不虚传 🛵吃完坐共享到汕头小公园 按路线拍拍拍（图三 小公园不大 走走停停两个小时就能走完 	 -下午 ⛴️到广场渡轮 两元往返 单趟就十分钟左右 往返包含上下船时间差不多半个多小时 建议坐二楼景观比较好 还会有工作人员教你拍汕头轮渡独特机位噢 	 定位细姨甜汤 打车到龙眼南路 😋打卡美食 楼下鸡翅✔️ 细姨甜汤 普宁反沙番薯芋头✔️ 长平肠粉✔️ 邻家果园水果 家常牛肉 亚鸿甘草水果✔️ 亚强果汁冰✔️ #吃喝玩乐薯#我是旅游吃喝特种兵#旅行就要逛吃逛吃#潮汕#潮汕美食#潮州#汕头#旅行#小公园美食#汕头小公园</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>1040g2sg31a64a4b0ngbg4a7np6dff7pu65hb2tg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>避坑潮州汕头路线选择</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>潮汕🌟|潮州+汕头，2天1晚周末游超全攻略！|||✅Day1:潮州（一桥一楼一街） 🌟|游玩路线： 韩文公祠→泰佛殿→潮州古城（牌坊街→广济桥→广济楼→颐园→开元寺→西马路→镇海楼→许驸马府→潮州西湖公园）→北堤夜市/潮食汇 🛤️|景点特色： 🔸韩文公祠：纪念唐宋八大家-韩愈建的公祠，依山傍水，古朴典雅 🔸泰佛殿：泰式风格建筑，门口可租衣服拍泰式照 🔸牌坊街：潮州古城的一条主街，有22座风格各异的牌坊，两边有众多特色美食，街口对面有南门市场，可以去买本地人吃的牛肉丸等特产 🔸广济桥：每晚8点有灯光秀很震撼，周五六日九点半会加1次，门票20 🔸颐园：潮州最美园林，拍新中式写真很出片，门票8 🔸开元寺：门口可以领3根贡香拜拜，可以求福袋手串，8点半左右开始，请完即止 🔸西马路：潮州地道小吃街，烟火气十足，很多必打卡美食：惠来绿豆饼、吴进平小食、甘草世家、糖葱薄饼 🔸镇海楼：大卡“潮州城府”，适合拍汉服写真，亮灯时间：18:00-23:00 🔸许驸马府：是一座宋代府第，现存最早的“府第式”民居，门票20 🔸西湖公园：众多亭宇，古香古色，可以划船散步，逛完可以去门口喝个芝麻茶 🔸北堤夜市（导航北关集市）：人多热闹，各种小吃摊，可以吹海边晚风 ✅Day2:汕头（百年商埠，海滨邹鲁，美食之乡） 🌟|游玩路线： 小公园→老妈宫戏台→汕头旅社→镇邦美食街→西堤公园→潮人码头→广场轮渡→礐石风景区→潮博馆 🛤️|景点特色： 🔸小公园：众多南洋骑楼建筑，是汕头老城的核心地标和文化标志，文艺感满满 🔸老妈宫戏台：中西合璧+潮汕独特建筑特色，一睹曾经的繁华，有很强的参观价值 🔸汕头旅社：门头“汕头旅社”四个大字，网红打卡点 🔸镇邦美食街：各种潮汕小吃 🔸西堤公园：是赏落日的绝佳之地，馥园建筑很民国风 🔸广场轮渡：傍晚去坐1元轮渡，海上追逐日落，游览汕头内海湾 🔸礐石风景区：山顶观景台飘然亭，可以俯览汕头全景 🔸潮博馆：背靠礐石风景区的笔架山，面向汕头内海湾，是潮汕历史文化博览园的核心建筑</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>1040g008314mtjuoom8305pjmi16gud9vfa7f36g!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>挑战广州女生出发300💰公共交通游潮州</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>广州女生独自出发📍潮州 下面是本人整理的特种兵一天游潮州【旅游攻略+真实旅游分享】‼️ 那些想一个人出发潮州不知道吃什么，玩什么的看这一篇就够了。 先给大家看个费用清单： 🈴️本人总花销合集（图2）—💰371（交通费占大头） 1⃣️吃喝：💰97r 2⃣️交通：💰187r广州-潮汕🚄动车 💰14 潮汕站—潮汕市区 旅游专列（K2跟旅游专列都可以从高铁站到潮汕古城，但是K2人很多要排比较久的队而且人多的时候没得坐就是大家平时见到的公交车，建议可以坐旅游专列15元直达古城，起码坐得舒服也贵不了几个钱） 3⃣️住宿：💰73r 4⃣️游玩：共💰0r 	 🏝️游玩路线（图3）：高铁站K2→牌坊街→西马路→回酒店→潮州古城→西湖公园→镇海楼→开元寺→广济楼+广济桥 ✅牌坊街——必去 （图4） 晚上的牌坊街比早上好看，错峰出行人很少 ，类似于广州步行街 ✅西马路——可去可不去 牌坊街隔壁，吃得跟牌坊街差不多。 ✅西湖公园——可去可不去不大，没啥看头还不如广州公园 ✅镇海楼——可去可不去，就一个城楼，可上可不上。 ✅开元寺——必去 （图5） 千年古刹 拍照很好看，很有氛围感 ✅广济楼/广济桥——必去 潮州标志性建筑，傍晚在广济楼上面看夕阳很不错（图6）。当然不可错过5:30pm看“过河拆桥”跟8:00PM的灯光秀（图7） 	 🍜单人美食路线（图8）：源福记牛肉丸→老魏杏仁糊→镇前街腐乳鸡翅→付鼓鼓龙眼冰→老戏园糖葱博饼→牛肉粿条→开元路古法甜汤鸭母捻→街边随便买的油柑汁→第二天路边早餐肠粉 ✅源福记牛肉丸 （团购8💰好吃又便宜） ✅老魏杏仁糊 （团购6💰 潮州人别骂我，感觉还不如广州我家楼下的） ✅镇前街腐乳鸡翅 （按重量买8💰是好吃的，但不值得排2小时买） ✅老戏园糖葱博饼 （吃过普宁好吃的，这个很一般外皮不脆） ✅牛肉粿条（随便找的一家，看得出来牛肉新鲜，汤底很鲜） ✅开元路古法甜汤鸭母捻（很好吃很大碗很多料，重点团购才10💰） ✅肠粉（好吃的，还加了溏心蛋 就是17💰比广州还贵） （本人建议！单独一个人出来吃不了牛肉火锅也吃不了鱼生生腌，就霍霍炫小吃吧。精髓就是少吃多餐。虽说潮州比较商业化，但是配合团购还是高性价比的😊） 	 🏨住哪里： 住在📍潮州古城内的一家民宿 不是节假日73💰一晚，挺舒适。 	 下一站：漳州#潮州  #穷游  #一人旅游  #广州周边游  #潮汕地区你们更喜欢去哪里旅游[投票]#</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>1040g2sg3193po2pf5a8049sdc8ag1obceso4si0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>潮州一日游citywalk攻略</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>✅路线安排： 牌坊街→开元寺→广济楼→广济桥→韩文公祠→泰佛殿→潮州西湖→广济桥灯光秀 #每天写一篇旅游攻略#潮汕的烟火气#潮汕#游玩攻略#旅游攻略#值得N刷的宝藏出游地#城市文化和旅游#本地人做的攻略#潮州#潮州旅行</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>1040g00831abb7vu0n21g5pjd7411onm79dche10!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>潮州一日游 | 超详细攻略（特种兵版）🚶🏻‍♂️</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>👀具体路线看图一 🖼️热门打卡景点看图二 🚅交通及物品准备看图四 ✨景点解析及门票看图五 ✔️最近天气还不错，很适合出游，潮州不大，1-2两天的行程足够了，如果姐妹们有更好的路线指南欢迎评论区告诉我😋😋 	 #潮州#一日游#旅游攻略#潮州一日游#潮州旅行#潮州古城#潮州旅游#潮州旅游攻略#潮州打卡#潮州牌坊街#潮州攻略#汕头旅行#游玩攻略#用一场旅行开启新年#城市探寻计划</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>1040g00830v6etqk95c304702pm507st4l626s00!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>深圳回潮汕抢票攻略</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>无意间的发现！！！ 深圳北回潮汕无敌难抢票！ 这个是一个很好的备选方案！ 多买两站，中间上车。 深圳北—潮汕125/135 惠州北—潮汕144 价格相差不大！ #12606#12306抢票#12306候补车票#深圳#潮汕#春节#春节抢票#高铁抢票#高铁买票</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>1040g2sg30u92drot5c4g5odio8o40qh34kvvfuo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>深圳出发🚝车票150💰以内直达城市！</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>深圳出发🚆🚝100元以内城市合集！实惠出行无压力‼😎 就在图八携🍊 🔍77特种兵，解锁100r以内宝藏目的地！！ - 可以根据自己的想法选择 👉时间 👉 价格 👉 只看高铁 👉 折扣筛选 真的超级实用，赶紧自己试试吧！！！ #深圳  #深圳出发  #深圳出发旅游  #广东旅游  #广东旅游攻略  #周边游  #周末去哪玩  #穷游攻略  #穷游党  #特种兵大学生  #高铁  #高铁出行  #火车票  #中秋旅游  #国庆节旅游  #2024出行攻略  #携程特种兵旅行  #特种兵说走就走</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>1040g0k03172so73bjk005pbg2v985ipib2lhtt8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>广东‖周末不出省好去处🔥深圳出发看这里</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>别犹豫了，跟我们一起从深圳出发❗ 无论是充满历史韵味的古城🌸风光旖旎的海滨🌸宁静祥和的乡村🌸广东的每一个角落都在等待着你的探索。 一起出发，让这个国庆假期成为一段难忘的回忆～ - 【惠州之旅】 在南昆山的山林间⛰️感受大自然的清新与宁静； 在巽寮湾双月湾的沙滩🏖️享受阳光与海浪的拥抱； 在惠州古城的巷弄里，品味历史的韵味与岁月的痕迹。 - 【韶关之行】 在丹霞⛰️的赤壁丹崖间，惊叹大自然的神奇力量；在南华寺的古刹钟声里，感受佛教文化的博大精深；在乳源大峡谷的深邃峡谷中，体验探险的刺激与乐趣。 - 【潮汕之旅】 品味那一碗碗香气四溢的牛肉丸汤，感受舌尖上的潮汕美味；漫步在潮州古城的石板路上，欣赏那古色古香的建筑与文化遗迹；在汕头的海边，吹着海风，眺望那无边的大海🌊 - 【江门之行】 在开平碉楼与村落中，领略中西合璧的建筑魅力，见证历史的沧桑变迁；于小鸟天堂的葱郁林间，聆听百鸟争鸣的自然乐章，感受生态的和谐之美🐦在古劳水乡的纵横河道上，乘船穿梭如画景致，品味水乡的温婉柔情。 - 【肇庆之游】 在七星岩的湖光山色里，沉醉于奇特喀斯特地貌的绝美画卷，欣赏山水交融的诗意景致；于鼎湖⛰️的茂密森林中，漫步清幽小径，呼吸饱含负氧离子的清新空气，聆听大自然的轻声细语；在古城墙的斑驳砖石🧱旁，触摸岁月的痕迹，追溯历史的源远流长。 - 【清远之旅】 在连州地下河的神秘溶洞🕳️中，惊叹钟乳石的千姿百态，感受地下世界的奇幻莫测；于古龙峡的湍急溪流间，体验漂流的刺激快感，挑战自我的勇气极限；在南岗千年瑶寨的古老石阶上，探寻瑶族文化的深厚底蕴，领略民族风情的独特魅力。 - 【阳江之行】 在海陵岛的金色沙滩🏖️上，沐浴温暖阳光☀️拥抱湛蓝大海🌊享受悠闲的度假时光；于大角湾的热闹海滨，参与丰富多彩的水上活动，释放激情与活力。 - 【珠海之约】 在珠海长隆海洋王国的奇妙世界里，观赏海洋生物的灵动身姿🐳沉浸于精彩绝伦的动物表演；👩‍❤️‍👨于情侣路的浪漫海岸边，携手漫步，欣赏海景与城市风光交织的美丽画卷，留下甜蜜的回忆；在圆明新园的古典园林中，领略皇家建筑的宏伟气势，感受历史文化的博大精深。 - 也有深圳一日线路推荐哦，国庆天天发～ 【出行日期➕人数➕目的地】 #深圳#深圳旅游#广东#旅游#国庆#国庆旅游#广东美食#旅游攻略#惠州#广州</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>1040g2sg318dgphk6k4805nps2crg8uorp2quts8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>汕头➕南澳岛➕潮州，纯手写三日游～人均800</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>#小众旅行地 毕业了还不知道去哪玩的小伙伴们，穷学生攻略来了！ 四天三晚，人均800元（吃好喝好睡好）吃的超好！主要景点基本免费 攻略都在图上，收藏起来，去玩吧！ Day1:汕头小公园～吴记火锅～开埠文化陈列馆～汕头邮政总局～汕头旅行社～西堤公园～广场轮渡⛴️～潮人码头～龙眼美食街 Day2: 长尾山灯塔~田仔地质公园~钱澳湾度假村~钱澳湾灯塔~海丝广场~前江湾沙滩~葫芦山 Day3:三囱崖灯塔~青澳湾~自然之门~2号公路~孤独的树~黄瓜山北回归线 Day4:牌坊街～开元寺～广济楼～广济桥～韩文公祠～泰佛殿～西湖公园～广济楼灯光秀#南澳岛攻略#汕头美食#汕头攻略游玩攻略#潮州游玩攻略#潮州美食攻略#汕头美食攻略#被低估的宝藏城市#假期去哪儿玩#海边旅游推荐 	 🛵tips:汕头比较大而且景点分散，日行万步不如zfb&amp;wx🔍【haluo租电动车】get一辆长续航家用小电驴，大平台有保障，跑的久还方便，夕阳西下和朋友一起骑行超级惬意~ 👗衣服搭配 👔通勤穿搭:担心早晚温差的话可以带件👕薄衬衫 📷拍照穿搭:田园风连衣裙、长裙、特色服饰清新风:浅色/白色/浅蓝/浅色的条纹或格子/小碎花 👗文艺风:白色长裙/纯色棉麻，蓝色、米白、吊带裙等衣服 拍照打卡点: ✅跨海大桥可以在公交车上拍，也可以在后宅拍。 ✅三囱崖灯塔、长山尾灯塔:真的只是打个卡，有兴趣可以走走。 ✅风车山要去，很漂亮，适合打卡也适合放空.4二号公路:拍照很好看。 ✅北回归线在公园里，要20门票，旺季不建议去，要排队打卡，淡季可以去。 ✅海滩去小的不热门的更漂亮，有非常多海滩，看到哪个人少又漂亮就去那里! 价格详细我都在图片中标记了，真的不用花费什么钱，超便宜旅游，适合穷学生，穷打工族 有什么不懂的随时私信💌我 祝大家玩的开心～ #慢慢游世界#租电动车#汕头攻略游玩攻略#汕头租电动车#大平台租电动车用哈啰#小众旅游#被低估的宝藏城市#宝藏旅游地推荐#哈啰租电动车</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>1040g2sg315vcm5tciobg5n70p9n5qq884dchqgg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>火车盲盒到底是谁在开？！</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>人生就要passion，开个盲盒说走就走，来一段随心的旅游，9元火车盲盒值得拥有！低交通花费去潮汕玩！ p1同程旅行 p2马达出行 #同程旅行火车票盲盒#马达出行盲盒#潮汕#特种兵旅游</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>1040g00831a8k866bn20g5oukbli9goa9q96fa3g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>去了潮汕5次，熬夜整理的潮汕旅游攻略</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>#汕头美食#汕头攻略#汕头旅游攻略#汕头旅游#汕头小公园#潮州美食#潮州旅游攻略#潮州旅游#潮州旅游攻略#潮汕美食#潮汕旅游攻略#潮汕旅游#潮汕周边游</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>1040g0083144m5f0lho104a609gkfr6unr0a97c8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>深圳出发车票100r以内直达城市！！！</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>深圳出发车票100元以内到达城市合集！ 【特价火车票】 【火车小时达】 携cheng🔍77特种兵（最后一张图） - 还可以根据自己的想法选择👇 👇 👇 时间 价格 只看高铁 折扣筛选 超级好用！ #广东  #深圳  #深圳旅游  #周边游  #穷游攻略   #高铁出行    #周末去哪玩  #特种兵说走就走  #携程特种兵旅行  #2024出行攻略</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>1040g34o319qjq8mo7i0g5pbqodofd6rdc3lf5g8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>青春没有售价，盲盒往返潮汕</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>又开到了往返潮汕的票，牛肉火锅我来咯。 同程和马达9元盲盒，yyds#同程盲盒#马达出行#青春没有售价#一个人的旅行</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>1040g2sg31agbb0ku6q605o9j9t4gkea17vru238!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>#车票</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>潮汕旅游攻略🌟熬夜整理✍🏻一篇说明白😘</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>潮汕现状⚠️近期去的姐妹尽早改行程✅这篇涵盖潮汕的景点🏝️交通和避雷指南😸如果你对潮汕完全不了解~可以先码住哦💕 #潮州#潮州旅游攻略#潮州旅游#潮州旅游必打卡#潮州旅行#潮州打卡#暑假潮州旅游#汕头旅游攻略 #游玩攻略 #旅游推荐 #旅游 #攻略#汕头#汕头旅游 #汕头攻略 #汕头旅行攻略 #汕头避雷#周末去哪玩#游玩攻略 #旅游攻略#令人难忘的景点@生活薯@户外薯@小红书成长笔记#周末去哪儿#不为打卡的旅行</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>1040g2sg31a2evod86oc05op92p8ovlkmrl644a0!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>#车票</t>
         </is>
       </c>
     </row>
